--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,55 +474,95 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>round 0.5</t>
-        </is>
-      </c>
+      <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>best_single_threshold_0.05_0.95</t>
-        </is>
-      </c>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>best_multiple_thresholds_0.05_0.95</t>
-        </is>
-      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>round 0.5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>best_graph_thresholds_0.05_0.95</t>
-        </is>
-      </c>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>best_single_threshold_0.25_0.75</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>best_single_threshold_0.05_0.95</t>
+        </is>
+      </c>
       <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>best_multiple_thresholds_0.25_0.75</t>
-        </is>
-      </c>
+      <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>best_graph_thresholds_0.25_0.75</t>
-        </is>
-      </c>
+      <c r="W1" s="1" t="n"/>
       <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>best_multiple_thresholds_0.05_0.95</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>best_graph_thresholds_0.05_0.95</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>best_single_threshold_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>best_multiple_thresholds_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="n"/>
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="n"/>
+      <c r="BC1" s="1" t="n"/>
+      <c r="BD1" s="1" t="n"/>
+      <c r="BE1" s="1" t="n"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>best_graph_thresholds_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="n"/>
+      <c r="BH1" s="1" t="n"/>
+      <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="n"/>
+      <c r="BK1" s="1" t="n"/>
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,117 +577,317 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
         </is>
       </c>
     </row>
@@ -661,71 +901,203 @@
         <v>0.6496119467710021</v>
       </c>
       <c r="C4" t="n">
+        <v>0.7612709674238876</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.423260248971465</v>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
+        <v>0.484901378328924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5795334858425016</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9828493376794167</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>0.6500601392116845</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>0.7263242938406913</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.3203661327231122</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
+        <v>0.3842614652977973</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5275469798231789</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9697278228522029</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.7059496567505721</v>
       </c>
-      <c r="H4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>0.6497667245547996</v>
       </c>
-      <c r="I4" t="n">
+      <c r="S4" t="n">
+        <v>0.7280522563164012</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.3176964149504195</v>
       </c>
-      <c r="J4" t="n">
+      <c r="U4" t="n">
+        <v>0.3817677815634063</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5300600879274028</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9698031282984397</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.7101449275362319</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>(0.9809305873379099,)</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
         <v>0.6406042151657894</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AA4" t="n">
+        <v>0.7156582122053802</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0.3142639206712433</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AC4" t="n">
+        <v>0.3764532023634383</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.5121666766970009</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.970951383293701</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0.7116704805491991</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>(0.9824561403508771,)</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
         <v>0.6138597438214468</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AI4" t="n">
+        <v>0.6807896748070217</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0.2807836480155358</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AK4" t="n">
+        <v>0.3284302340410733</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.4634745813238503</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.9734242182315097</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.7437070938215103</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>(0.9839816933638444,)</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
         <v>0.6497667245547996</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AQ4" t="n">
+        <v>0.7280522563164012</v>
+      </c>
+      <c r="AR4" t="n">
         <v>0.3176964149504195</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AS4" t="n">
+        <v>0.3817677815634063</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.5300600879274028</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.9698031282984397</v>
+      </c>
+      <c r="AV4" t="n">
         <v>0.7101449275362319</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>(0.9809305873379099,)</t>
+        </is>
+      </c>
+      <c r="AX4" t="n">
         <v>0.6426845869171515</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AY4" t="n">
+        <v>0.7226114334966123</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>0.3047292143401983</v>
       </c>
-      <c r="V4" t="n">
+      <c r="BA4" t="n">
+        <v>0.3693023713070546</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.5221672838200289</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9704514898233567</v>
+      </c>
+      <c r="BD4" t="n">
         <v>0.7234935163996948</v>
       </c>
-      <c r="W4" t="n">
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>(0.9816933638443935,)</t>
+        </is>
+      </c>
+      <c r="BF4" t="n">
         <v>0.6185019069357501</v>
       </c>
-      <c r="X4" t="n">
+      <c r="BG4" t="n">
+        <v>0.6932334939211495</v>
+      </c>
+      <c r="BH4" t="n">
         <v>0.2849789188011957</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="BI4" t="n">
+        <v>0.3425206637602032</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.4805726770941244</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.9729815691450934</v>
+      </c>
+      <c r="BL4" t="n">
         <v>0.7402745995423341</v>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>(0.9832189168573608,)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -738,71 +1110,203 @@
         <v>0.6504749189330395</v>
       </c>
       <c r="C5" t="n">
+        <v>0.7629211828622028</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.423599050966936</v>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
+        <v>0.4857594687408376</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5820487312598627</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.982870153819027</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>0.6474146200949885</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
+        <v>0.7255227119003247</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.3169336384439359</v>
       </c>
-      <c r="G5" t="n">
+      <c r="M5" t="n">
+        <v>0.381191631663723</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5263832054832015</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9700767993103735</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.7093821510297483</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>0.6474146200949885</v>
       </c>
-      <c r="I5" t="n">
+      <c r="S5" t="n">
+        <v>0.7255227119003247</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.3169336384439359</v>
       </c>
-      <c r="J5" t="n">
+      <c r="U5" t="n">
+        <v>0.381191631663723</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5263832054832015</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9700767993103735</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.7093821510297483</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
         <v>0.6544455732836318</v>
       </c>
-      <c r="L5" t="n">
+      <c r="AA5" t="n">
+        <v>0.7386677295857886</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.3230358504958047</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AC5" t="n">
+        <v>0.3948980380297862</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5456300147314238</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9701775126917228</v>
+      </c>
+      <c r="AF5" t="n">
         <v>0.7051868802440885</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>(0.9809305873379099,)</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
         <v>0.6157220275943561</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AI5" t="n">
+        <v>0.6900104978035106</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>0.2823095866863678</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AK5" t="n">
+        <v>0.3385908266306456</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.4761144870790486</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.9732362607356179</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.7425629290617849</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>(0.9836003051106026,)</t>
+        </is>
+      </c>
+      <c r="AP5" t="n">
         <v>0.6474146200949885</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AQ5" t="n">
+        <v>0.7255227119003247</v>
+      </c>
+      <c r="AR5" t="n">
         <v>0.3169336384439359</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AS5" t="n">
+        <v>0.381191631663723</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.5263832054832015</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9700767993103735</v>
+      </c>
+      <c r="AV5" t="n">
         <v>0.7093821510297483</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
+      </c>
+      <c r="AX5" t="n">
         <v>0.6456449185065174</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AY5" t="n">
+        <v>0.7194772172929014</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>0.3131197559115179</v>
       </c>
-      <c r="V5" t="n">
+      <c r="BA5" t="n">
+        <v>0.3688010057475393</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.5176474662035367</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9703792455741214</v>
+      </c>
+      <c r="BD5" t="n">
         <v>0.7135774218154081</v>
       </c>
-      <c r="W5" t="n">
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
+      </c>
+      <c r="BF5" t="n">
         <v>0.6172686259086185</v>
       </c>
-      <c r="X5" t="n">
+      <c r="BG5" t="n">
+        <v>0.6920590869885842</v>
+      </c>
+      <c r="BH5" t="n">
         <v>0.2849793044590604</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="BI5" t="n">
+        <v>0.3419397177787551</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.4789457798834728</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.9731759551546884</v>
+      </c>
+      <c r="BL5" t="n">
         <v>0.7395118230358505</v>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>(0.9839816933638444,)</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -815,71 +1319,203 @@
         <v>0.6528115522534125</v>
       </c>
       <c r="C6" t="n">
+        <v>0.7679423732031505</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.4205336623228195</v>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
+        <v>0.4827592372391598</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.589735488560887</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9830764784969278</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>0.6411992958469781</v>
       </c>
-      <c r="F6" t="n">
+      <c r="K6" t="n">
+        <v>0.7177419050474797</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.3066361556064073</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>0.3686535506078341</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5151534422611854</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9709262814782887</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.7200610221205187</v>
       </c>
-      <c r="H6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>(0.9832189168573608,)</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>0.6411992958469781</v>
       </c>
-      <c r="I6" t="n">
+      <c r="S6" t="n">
+        <v>0.7177419050474797</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.3066361556064073</v>
       </c>
-      <c r="J6" t="n">
+      <c r="U6" t="n">
+        <v>0.3686535506078341</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5151534422611854</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9709262814782887</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.7200610221205187</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>(0.9832189168573608,)</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
         <v>0.6385170653283155</v>
       </c>
-      <c r="L6" t="n">
+      <c r="AA6" t="n">
+        <v>0.7115941736851382</v>
+      </c>
+      <c r="AB6" t="n">
         <v>0.3070175438596491</v>
       </c>
-      <c r="M6" t="n">
+      <c r="AC6" t="n">
+        <v>0.364830432686542</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.5063662680226346</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.9703755721377196</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.7189168573607932</v>
       </c>
-      <c r="N6" t="n">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>(0.9832189168573608,)</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
         <v>0.610439352886704</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AI6" t="n">
+        <v>0.6785017562802538</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>0.2735596342531937</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AK6" t="n">
+        <v>0.3225051034870829</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.4603646332753888</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9738347247494105</v>
+      </c>
+      <c r="AN6" t="n">
         <v>0.7517162471395881</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>(0.9839816933638444,)</t>
+        </is>
+      </c>
+      <c r="AP6" t="n">
         <v>0.6411992958469781</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AQ6" t="n">
+        <v>0.7177419050474797</v>
+      </c>
+      <c r="AR6" t="n">
         <v>0.3066361556064073</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AS6" t="n">
+        <v>0.3686535506078341</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.5151534422611854</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.9709262814782887</v>
+      </c>
+      <c r="AV6" t="n">
         <v>0.7200610221205187</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>(0.9832189168573608,)</t>
+        </is>
+      </c>
+      <c r="AX6" t="n">
         <v>0.6373213394375848</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AY6" t="n">
+        <v>0.7192689658419766</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>0.3001525553012967</v>
       </c>
-      <c r="V6" t="n">
+      <c r="BA6" t="n">
+        <v>0.3663617789643335</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.5173478452233866</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.9717974981449146</v>
+      </c>
+      <c r="BD6" t="n">
         <v>0.7269260106788711</v>
       </c>
-      <c r="W6" t="n">
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
+      </c>
+      <c r="BF6" t="n">
         <v>0.6135552836421149</v>
       </c>
-      <c r="X6" t="n">
+      <c r="BG6" t="n">
+        <v>0.6835387010751212</v>
+      </c>
+      <c r="BH6" t="n">
         <v>0.2773735167856117</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="BI6" t="n">
+        <v>0.3290711477981874</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.4672251558674638</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.9736042166151977</v>
+      </c>
+      <c r="BL6" t="n">
         <v>0.7479023646071701</v>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>(0.9839816933638444,)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -892,71 +1528,203 @@
         <v>0.67657239489444</v>
       </c>
       <c r="C7" t="n">
+        <v>0.792898542893642</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.4124044954792211</v>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
+        <v>0.4702092071498097</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6286880993228606</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9821599561146798</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>0.6547368911584128</v>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
+        <v>0.7323614606613968</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.2951945080091533</v>
       </c>
-      <c r="G7" t="n">
+      <c r="M7" t="n">
+        <v>0.352687742533641</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5363533090620948</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9707123038078842</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.7372234935163997</v>
       </c>
-      <c r="H7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>(0.9809305873379099,)</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>0.6553191383976719</v>
       </c>
-      <c r="I7" t="n">
+      <c r="S7" t="n">
+        <v>0.7348341737140682</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.2951945080091533</v>
       </c>
-      <c r="J7" t="n">
+      <c r="U7" t="n">
+        <v>0.3541479954146462</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5399812628580374</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9703287358235967</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.7379862700228833</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>(0.9797864225781846,)</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
         <v>0.6553191383976719</v>
       </c>
-      <c r="L7" t="n">
+      <c r="AA7" t="n">
+        <v>0.7263212520910767</v>
+      </c>
+      <c r="AB7" t="n">
         <v>0.2974828375286041</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AC7" t="n">
+        <v>0.3464843040345704</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5275425612391493</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.971168116041407</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0.7345537757437071</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>(0.9809305873379099,)</t>
+        </is>
+      </c>
+      <c r="AH7" t="n">
         <v>0.6274032427449656</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AI7" t="n">
+        <v>0.6952896570655486</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>0.2589231126520366</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AK7" t="n">
+        <v>0.3010702904370675</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.4834277072223281</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.9739296218564568</v>
+      </c>
+      <c r="AN7" t="n">
         <v>0.7745995423340961</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>(0.9797864225781846,)</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
         <v>0.6553191383976719</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AQ7" t="n">
+        <v>0.7348341737140682</v>
+      </c>
+      <c r="AR7" t="n">
         <v>0.2951945080091533</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AS7" t="n">
+        <v>0.3541479954146462</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.5399812628580374</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.9703287358235967</v>
+      </c>
+      <c r="AV7" t="n">
         <v>0.7379862700228833</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>(0.9797864225781846,)</t>
+        </is>
+      </c>
+      <c r="AX7" t="n">
         <v>0.648297659314349</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AY7" t="n">
+        <v>0.7225030152959173</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>0.2845156369183829</v>
       </c>
-      <c r="V7" t="n">
+      <c r="BA7" t="n">
+        <v>0.3376901428458093</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.5220106071116926</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.9711442387047953</v>
+      </c>
+      <c r="BD7" t="n">
         <v>0.7490465293668955</v>
       </c>
-      <c r="W7" t="n">
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>(0.9797864225781846,)</t>
+        </is>
+      </c>
+      <c r="BF7" t="n">
         <v>0.6295272406970097</v>
       </c>
-      <c r="X7" t="n">
+      <c r="BG7" t="n">
+        <v>0.6992798805361535</v>
+      </c>
+      <c r="BH7" t="n">
         <v>0.2623556069312128</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="BI7" t="n">
+        <v>0.3071525328810819</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.4889923513226572</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.9737774803654824</v>
+      </c>
+      <c r="BL7" t="n">
         <v>0.7707856598016781</v>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>(0.9801678108314263,)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -969,71 +1737,203 @@
         <v>0.6652334003568285</v>
       </c>
       <c r="C8" t="n">
+        <v>0.77811129165566</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.4102550278447114</v>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
+        <v>0.466427607056499</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6054571822020395</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9825811768220857</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>0.6570627844199652</v>
       </c>
-      <c r="F8" t="n">
+      <c r="K8" t="n">
+        <v>0.7328397872255279</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.2982456140350877</v>
       </c>
-      <c r="G8" t="n">
+      <c r="M8" t="n">
+        <v>0.3555642383023772</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.537054153740757</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9703021034096837</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.7341723874904653</v>
       </c>
-      <c r="H8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>(0.9805491990846682,)</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>0.6485917385580128</v>
       </c>
-      <c r="I8" t="n">
+      <c r="S8" t="n">
+        <v>0.7278486923498924</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.2932875667429443</v>
       </c>
-      <c r="J8" t="n">
+      <c r="U8" t="n">
+        <v>0.3526899099157835</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5297637189554483</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9709388323859949</v>
+      </c>
+      <c r="X8" t="n">
         <v>0.7376048817696415</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>(0.9813119755911518,)</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
         <v>0.6535708405603912</v>
       </c>
-      <c r="L8" t="n">
+      <c r="AA8" t="n">
+        <v>0.7266935481147954</v>
+      </c>
+      <c r="AB8" t="n">
         <v>0.2967200610221205</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AC8" t="n">
+        <v>0.3530239195974296</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5280835128716703</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9709951584108224</v>
+      </c>
+      <c r="AF8" t="n">
         <v>0.7345537757437071</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>(0.9813119755911518,)</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
         <v>0.62626168381025</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AI8" t="n">
+        <v>0.6935198781195002</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>0.2619514566693085</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AK8" t="n">
+        <v>0.3042239212407042</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.4809698213468864</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9739887029585856</v>
+      </c>
+      <c r="AN8" t="n">
         <v>0.7696414950419527</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>(0.9813119755911518,)</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
         <v>0.6485917385580128</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AQ8" t="n">
+        <v>0.7278486923498924</v>
+      </c>
+      <c r="AR8" t="n">
         <v>0.2932875667429443</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AS8" t="n">
+        <v>0.3526899099157835</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.5297637189554483</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9709388323859949</v>
+      </c>
+      <c r="AV8" t="n">
         <v>0.7376048817696415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>(0.9813119755911518,)</t>
+        </is>
+      </c>
+      <c r="AX8" t="n">
         <v>0.6524027058633716</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AY8" t="n">
+        <v>0.7341498001623845</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>0.2875667429443173</v>
       </c>
-      <c r="V8" t="n">
+      <c r="BA8" t="n">
+        <v>0.3496691229198289</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.5389759290784691</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.971567296130402</v>
+      </c>
+      <c r="BD8" t="n">
         <v>0.7467581998474447</v>
       </c>
-      <c r="W8" t="n">
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>(0.9786422578184591,)</t>
+        </is>
+      </c>
+      <c r="BF8" t="n">
         <v>0.6253475288582535</v>
       </c>
-      <c r="X8" t="n">
+      <c r="BG8" t="n">
+        <v>0.6948765189996838</v>
+      </c>
+      <c r="BH8" t="n">
         <v>0.2638583979355175</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="BI8" t="n">
+        <v>0.3081778699256771</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.482853376657118</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.9739222749836532</v>
+      </c>
+      <c r="BL8" t="n">
         <v>0.7662090007627765</v>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>(0.982837528604119,)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1046,71 +1946,203 @@
         <v>0.6669233806868007</v>
       </c>
       <c r="C9" t="n">
+        <v>0.7817042092982958</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.409728346969727</v>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
+        <v>0.467489876910968</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6110614708346738</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.982534646627663</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>0.6547368911584128</v>
       </c>
-      <c r="F9" t="n">
+      <c r="K9" t="n">
+        <v>0.7325208701734874</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.2974828375286041</v>
       </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
+        <v>0.3560923716663704</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5365868252397232</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9705837335338213</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.7349351639969489</v>
       </c>
-      <c r="H9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>(0.9801678108314263,)</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>0.6488856845230502</v>
       </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
+        <v>0.7281437759019274</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.2898550724637681</v>
       </c>
-      <c r="J9" t="n">
+      <c r="U9" t="n">
+        <v>0.3484662977832426</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5301933583847162</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9710184235080338</v>
+      </c>
+      <c r="X9" t="n">
         <v>0.7425629290617849</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>(0.9801678108314263,)</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
         <v>0.6500601392116845</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AA9" t="n">
+        <v>0.7170756219898853</v>
+      </c>
+      <c r="AB9" t="n">
         <v>0.2944317315026697</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AC9" t="n">
+        <v>0.3388788340992314</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5141974476521808</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9706798551196684</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0.7387490465293669</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>(0.979023646071701,)</t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
         <v>0.6251394779420241</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AI9" t="n">
+        <v>0.6946155743504779</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>0.261113098301443</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AK9" t="n">
+        <v>0.3067561500319323</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.4824907961302444</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9740410494273113</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.7704042715484363</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>(0.9813119755911518,)</t>
+        </is>
+      </c>
+      <c r="AP9" t="n">
         <v>0.6488856845230502</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AQ9" t="n">
+        <v>0.7281437759019274</v>
+      </c>
+      <c r="AR9" t="n">
         <v>0.2898550724637681</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AS9" t="n">
+        <v>0.3484662977832426</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.5301933583847162</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.9710184235080338</v>
+      </c>
+      <c r="AV9" t="n">
         <v>0.7425629290617849</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>(0.9801678108314263,)</t>
+        </is>
+      </c>
+      <c r="AX9" t="n">
         <v>0.6373213394375848</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AY9" t="n">
+        <v>0.716215783252158</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>0.2749809305873379</v>
       </c>
-      <c r="V9" t="n">
+      <c r="BA9" t="n">
+        <v>0.3331833686128088</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.5129650481795022</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.972526675270671</v>
+      </c>
+      <c r="BD9" t="n">
         <v>0.7570556826849733</v>
       </c>
-      <c r="W9" t="n">
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>(0.9805491990846682,)</t>
+        </is>
+      </c>
+      <c r="BF9" t="n">
         <v>0.6248343609536727</v>
       </c>
-      <c r="X9" t="n">
+      <c r="BG9" t="n">
+        <v>0.6968580625946184</v>
+      </c>
+      <c r="BH9" t="n">
         <v>0.263020039567652</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="BI9" t="n">
+        <v>0.3103658790115701</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.4856111594031251</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.9739501318763668</v>
+      </c>
+      <c r="BL9" t="n">
         <v>0.7673531655225019</v>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>(0.9824561403508771,)</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1123,71 +2155,203 @@
         <v>0.3424249040252524</v>
       </c>
       <c r="C10" t="n">
+        <v>0.3517936496475206</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.2252797433649876</v>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
+        <v>0.224582686998248</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1237587719323225</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9952673894356867</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>0.3796903471585766</v>
       </c>
-      <c r="F10" t="n">
+      <c r="K10" t="n">
+        <v>0.4208164865736684</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.1296720061022121</v>
       </c>
-      <c r="G10" t="n">
+      <c r="M10" t="n">
+        <v>0.1569406855031399</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1770865153722064</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9881017394945841</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.876048817696415</v>
       </c>
-      <c r="H10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>(0.9954233409610984,)</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>0.3796903471585766</v>
       </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
+        <v>0.4208164865736684</v>
+      </c>
+      <c r="T10" t="n">
         <v>0.1296720061022121</v>
       </c>
-      <c r="J10" t="n">
+      <c r="U10" t="n">
+        <v>0.1569406855031399</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1770865153722064</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9881017394945841</v>
+      </c>
+      <c r="X10" t="n">
         <v>0.876048817696415</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>(0.9954233409610984,)</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
         <v>0.3963987390691621</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AA10" t="n">
+        <v>0.4332726973301468</v>
+      </c>
+      <c r="AB10" t="n">
         <v>0.1434019832189169</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AC10" t="n">
+        <v>0.1686248320326383</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.187725230251741</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9866152222306576</v>
+      </c>
+      <c r="AF10" t="n">
         <v>0.8619374523264683</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>(0.9958047292143402,)</t>
+        </is>
+      </c>
+      <c r="AH10" t="n">
         <v>0.3371716712997535</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AI10" t="n">
+        <v>0.357279046417532</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>0.09937665244777971</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AK10" t="n">
+        <v>0.1077666879329969</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.127648317009021</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.9899761104186003</v>
+      </c>
+      <c r="AN10" t="n">
         <v>0.906559877955759</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>(0.9954233409610984,)</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
         <v>0.3796903471585766</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AQ10" t="n">
+        <v>0.4208164865736684</v>
+      </c>
+      <c r="AR10" t="n">
         <v>0.1296720061022121</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AS10" t="n">
+        <v>0.1569406855031399</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.1770865153722064</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.9881017394945841</v>
+      </c>
+      <c r="AV10" t="n">
         <v>0.876048817696415</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>(0.9954233409610984,)</t>
+        </is>
+      </c>
+      <c r="AX10" t="n">
         <v>0.3674390311978264</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AY10" t="n">
+        <v>0.4091595389635791</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>0.1212814645308924</v>
       </c>
-      <c r="V10" t="n">
+      <c r="BA10" t="n">
+        <v>0.1476200299461985</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.1674115283248886</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.988731733837492</v>
+      </c>
+      <c r="BD10" t="n">
         <v>0.8840579710144928</v>
       </c>
-      <c r="W10" t="n">
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>(0.9958047292143402,)</t>
+        </is>
+      </c>
+      <c r="BF10" t="n">
         <v>0.3377367675872895</v>
       </c>
-      <c r="X10" t="n">
+      <c r="BG10" t="n">
+        <v>0.3584343980520854</v>
+      </c>
+      <c r="BH10" t="n">
         <v>0.1005208172075051</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="BI10" t="n">
+        <v>0.109111186974622</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.1284752177069608</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.9899314169423785</v>
+      </c>
+      <c r="BL10" t="n">
         <v>0.9050343249427918</v>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>(0.9958047292143402,)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1202,69 +2366,201 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9805491990846682</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L11" t="n">
         <v>0.01945080091533181</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P11" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="T11" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="X11" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AA11" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AB11" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AC11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="AF11" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AI11" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AK11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="AN11" t="n">
         <v>0.9805491990846682</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.1394661282008352</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.01945080091533181</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.9805491990846682</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.1394661282008352</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.01945080091533181</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.9805491990846682</v>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.1394661282008352</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.01945080091533181</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.9805491990846682</v>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1277,71 +2573,203 @@
         <v>0.156102677000077</v>
       </c>
       <c r="C12" t="n">
+        <v>0.1767609125532896</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.09030968726163228</v>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
+        <v>0.1004761560495976</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03124442020667169</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9996026566292058</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>0.1913459492939759</v>
       </c>
-      <c r="F12" t="n">
+      <c r="K12" t="n">
+        <v>0.2622575285011545</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.03356216628527842</v>
       </c>
-      <c r="G12" t="n">
+      <c r="M12" t="n">
+        <v>0.0628799044171786</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06877901125553385</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9980500175100468</v>
+      </c>
+      <c r="P12" t="n">
         <v>0.967581998474447</v>
       </c>
-      <c r="H12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>(0.9992372234935164,)</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>0.1789877461512693</v>
       </c>
-      <c r="I12" t="n">
+      <c r="S12" t="n">
+        <v>0.2492960838672684</v>
+      </c>
+      <c r="T12" t="n">
         <v>0.02974828375286041</v>
       </c>
-      <c r="J12" t="n">
+      <c r="U12" t="n">
+        <v>0.05722647016330346</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.06214853743155612</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9982955255095669</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.9710144927536232</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>(0.9996186117467581,)</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
         <v>0.1913459492939759</v>
       </c>
-      <c r="L12" t="n">
+      <c r="AA12" t="n">
+        <v>0.2585259663648851</v>
+      </c>
+      <c r="AB12" t="n">
         <v>0.03508771929824561</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AC12" t="n">
+        <v>0.06421794662537753</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.06683567528489767</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.9977876729270186</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0.965675057208238</v>
       </c>
-      <c r="N12" t="n">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>(0.9992372234935164,)</t>
+        </is>
+      </c>
+      <c r="AH12" t="n">
         <v>0.08949387307563464</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AI12" t="n">
+        <v>0.1077457177989703</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>0.007246376811594203</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AK12" t="n">
+        <v>0.009968450614597793</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.01160913970401535</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.999369699537392</v>
+      </c>
+      <c r="AN12" t="n">
         <v>0.9931350114416476</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>(0.9996186117467581,)</t>
+        </is>
+      </c>
+      <c r="AP12" t="n">
         <v>0.1789877461512693</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AQ12" t="n">
+        <v>0.2492960838672684</v>
+      </c>
+      <c r="AR12" t="n">
         <v>0.02974828375286041</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AS12" t="n">
+        <v>0.05722647016330346</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.06214853743155612</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.9982955255095669</v>
+      </c>
+      <c r="AV12" t="n">
         <v>0.9710144927536232</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>(0.9996186117467581,)</t>
+        </is>
+      </c>
+      <c r="AX12" t="n">
         <v>0.1757624775445141</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AY12" t="n">
+        <v>0.2425211354785897</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>0.02936689549961861</v>
       </c>
-      <c r="V12" t="n">
+      <c r="BA12" t="n">
+        <v>0.05619877249430433</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.05881650115382447</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.9983047091005713</v>
+      </c>
+      <c r="BD12" t="n">
         <v>0.971395881006865</v>
       </c>
-      <c r="W12" t="n">
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>(0.9992372234935164,)</t>
+        </is>
+      </c>
+      <c r="BF12" t="n">
         <v>0.08949387307563464</v>
       </c>
-      <c r="X12" t="n">
+      <c r="BG12" t="n">
+        <v>0.1077457177989703</v>
+      </c>
+      <c r="BH12" t="n">
         <v>0.007246376811594203</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="BI12" t="n">
+        <v>0.009968450614597793</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.01160913970401535</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.999369699537392</v>
+      </c>
+      <c r="BL12" t="n">
         <v>0.9931350114416476</v>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>(0.9996186117467581,)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1351,779 +2779,218 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.739835250265554e-07</v>
+        <v>5.415108469745949e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.255856546699546e-07</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>5.756126974501835e-05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.795961923019949e-05</v>
+      </c>
       <c r="E13" t="n">
+        <v>1.79194315729457e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.313299774658765e-09</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9805491990846682</v>
-      </c>
       <c r="K13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L13" t="n">
         <v>0.01945080091533181</v>
       </c>
       <c r="M13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="P13" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.103338623422088</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.01067887371691633</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.9893211289092296</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="X13" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="T13" t="n">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AA13" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AB13" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AC13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="AF13" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="W13" t="n">
-        <v>0.103338623422088</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.01067887371691633</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.9893211289092296</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>linear_ordinal_model_probit</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6297966206415149</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2890922959572845</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.6409018245733263</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.3032036613272311</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.7254004576659039</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>linear_ordinal_model_logit</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.6057189939391134</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2723112128146453</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.6172575353841849</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.2864225781845919</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>ordered_random_forest</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4592468878966035</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1651411136536995</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.4751650722845122</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.1800152555301297</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.8371472158657514</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>logisticAT</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5990712364156152</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2711670480549199</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.6104230692046614</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.2848970251716247</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.7398932112890922</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>logisticIT</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6012953218454526</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2532418001525553</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.612917147290866</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.2673531655225019</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.7612509534706331</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>simple_or</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.1051677678681378</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.1572352782776704</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.01106066807917651</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.02472356232441236</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.02472293273505644</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.99952949402087</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.9889397406559878</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="AP13" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="F19" t="n">
+      <c r="AQ13" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AR13" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="G19" t="n">
+      <c r="AS13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="AV13" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="H19" t="n">
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="AX13" t="n">
         <v>0.1394661282008352</v>
       </c>
-      <c r="I19" t="n">
+      <c r="AY13" t="n">
+        <v>0.2085144140570748</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>0.01945080091533181</v>
       </c>
-      <c r="J19" t="n">
+      <c r="BA13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.9991725584504956</v>
+      </c>
+      <c r="BD13" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.1394661282008352</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.01945080091533181</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>gpor</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.4875550102718926</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3363446967840387</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.5298129428260175</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.2295957284515637</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.7837528604118993</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5298129428260175</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2295957284515637</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7837528604118993</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.5461186812727502</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.2448512585812357</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.7696414950419527</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.4925067807267072</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.1906941266209001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.8230358504958047</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.5298129428260175</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.2295957284515637</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.7837528604118993</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.5232941484744622</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.2227307398932113</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.7906178489702517</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.4955946277833521</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.1937452326468345</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.8199847444698704</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>coral</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5436689215528097</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2581998474446987</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.5447201676293255</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.2593440122044241</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.7555301296720061</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>corn</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5780104755450518</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2837528604118993</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.7269260106788711</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7269260106788711</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7269260106788711</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.7269260106788711</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.7269260106788711</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.7269260106788711</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.5852235909557445</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.2944317315026697</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.7269260106788711</v>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.1051677678681378</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.1572352782776704</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.01106066807917651</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.02472356232441236</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.02472293273505644</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.99952949402087</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.9889397406559878</v>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>(1.0,)</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="BF1:BM1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM24"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4984,6 +4984,201 @@
       </c>
       <c r="BM24" t="n">
         <v>0.9935163996948894</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>condor</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4978979459760505</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5517009882176608</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2082379862700229</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2465789277406037</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3043739804003435</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9838607571687111</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.9877955758962624</v>
       </c>
     </row>
   </sheetData>

--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,388 +894,388 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>linear_regression</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.649611946771002</v>
+        <v>0.7811936902327505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7612709674238874</v>
+        <v>0.8689698945656756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.423260248971465</v>
+        <v>0.4689804220696669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.484901378328924</v>
+        <v>0.5133830230090558</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5795334858425015</v>
+        <v>0.7551086776614815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9828493376794167</v>
+        <v>0.9669191746033301</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.6500601392116845</v>
+        <v>0.8188287667144363</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7263242938406913</v>
+        <v>0.9104536897739206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3203661327231122</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3842614652977973</v>
+        <v>0.4780874897824713</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5275469798231789</v>
+        <v>0.8289259212229464</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9697278228522029</v>
+        <v>0.9571221197197413</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7059496567505721</v>
+        <v>0.6540808543096872</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6497667245547996</v>
+        <v>0.8188287667144363</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7280522563164012</v>
+        <v>0.9104536897739206</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3176964149504195</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3817677815634063</v>
+        <v>0.4780874897824713</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5300600879274028</v>
+        <v>0.8289259212229464</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9698031282984397</v>
+        <v>0.9571221197197413</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.6540808543096872</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6406042151657894</v>
+        <v>0.8169635507004889</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7156582122053802</v>
+        <v>0.9014609378779836</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3142639206712433</v>
+        <v>0.4225781845919146</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3764532023634383</v>
+        <v>0.4760491539295028</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5121666766970009</v>
+        <v>0.8126318225198539</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.970951383293701</v>
+        <v>0.9562502908137152</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7116704805491991</v>
+        <v>0.6502669717772692</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9496567505720824</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6138597438214468</v>
+        <v>0.8028363145614692</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6807896748070217</v>
+        <v>0.8812307592417018</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2807836480155358</v>
+        <v>0.4080854309687262</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3284302340410733</v>
+        <v>0.4480673133677124</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4634745813238503</v>
+        <v>0.7765676510337063</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9734242182315097</v>
+        <v>0.9575874216639687</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.6632341723874905</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9500381388253242</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6497667245547996</v>
+        <v>0.8188287667144363</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.7280522563164012</v>
+        <v>0.9104536897739206</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.3176964149504195</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3817677815634063</v>
+        <v>0.4780874897824713</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5300600879274028</v>
+        <v>0.8289259212229464</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9698031282984397</v>
+        <v>0.9571221197197413</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.6540808543096872</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.6426845869171515</v>
+        <v>0.8120469751529603</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.7226114334966123</v>
+        <v>0.8936656410260682</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.3047292143401983</v>
+        <v>0.4168573607932876</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.3693023713070546</v>
+        <v>0.4660886690073096</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.5221672838200289</v>
+        <v>0.7986382779505333</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9704514898233567</v>
+        <v>0.9568812035157235</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.7234935163996948</v>
+        <v>0.6548436308161708</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9508009153318078</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.6185019069357501</v>
+        <v>0.8028363145614692</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6932334939211495</v>
+        <v>0.8812307592417018</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.2849789188011957</v>
+        <v>0.4080854309687262</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.3425206637602032</v>
+        <v>0.4480673133677124</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.4805726770941244</v>
+        <v>0.7765676510337063</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.9729815691450934</v>
+        <v>0.9575874216639687</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.7402745995423341</v>
+        <v>0.6632341723874905</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9500381388253242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_ridge</t>
+          <t>linear_regression</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6504749189330395</v>
+        <v>0.6261614537715099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7629211828622027</v>
+        <v>0.7305555531966975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.423599050966936</v>
+        <v>0.4159106390836186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4857594687408376</v>
+        <v>0.4748821362587158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5820487312598626</v>
+        <v>0.5337114163065327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.982870153819027</v>
+        <v>0.9832240281924</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.6474146200949885</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7255227119003247</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3169336384439359</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="M5" t="n">
-        <v>0.381191631663723</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5263832054832015</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9700767993103735</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7093821510297483</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6474146200949885</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7255227119003247</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3169336384439359</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="U5" t="n">
-        <v>0.381191631663723</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5263832054832015</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9700767993103735</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7093821510297483</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6544455732836318</v>
+        <v>0.6264571115294425</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7386677295857886</v>
+        <v>0.6806768768393032</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3230358504958047</v>
+        <v>0.3062547673531655</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3948980380297862</v>
+        <v>0.3503616991451248</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5456300147314238</v>
+        <v>0.4633210106637079</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9701775126917228</v>
+        <v>0.9711485243805974</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7051868802440885</v>
+        <v>0.7196796338672768</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6157220275943561</v>
+        <v>0.591749523598273</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6900104978035106</v>
+        <v>0.6443731004622157</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2823095866863678</v>
+        <v>0.2701935804429335</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3385908266306456</v>
+        <v>0.3099857561373867</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4761144870790486</v>
+        <v>0.4152166925992887</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9732362607356179</v>
+        <v>0.9743015572921386</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7425629290617849</v>
+        <v>0.7532418001525553</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6474146200949885</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7255227119003247</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3169336384439359</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.381191631663723</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5263832054832015</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9700767993103735</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7093821510297483</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.6456449185065174</v>
+        <v>0.6132281938205507</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.7194772172929014</v>
+        <v>0.678167654644497</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3131197559115179</v>
+        <v>0.2944317315026697</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3688010057475393</v>
+        <v>0.3495787814162409</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.5176474662035367</v>
+        <v>0.4599113678060177</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.9703792455741214</v>
+        <v>0.9717497434716913</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.7135774218154081</v>
+        <v>0.7307398932112891</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.6172686259086185</v>
+        <v>0.5930371419158755</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6920590869885842</v>
+        <v>0.6507582003432583</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2849793044590604</v>
+        <v>0.2740074629753516</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3419397177787551</v>
+        <v>0.3179666620747397</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.4789457798834728</v>
+        <v>0.4234862353139963</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.9731759551546884</v>
+        <v>0.9738901324151374</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.7395118230358505</v>
+        <v>0.7494279176201373</v>
       </c>
       <c r="BM5" t="n">
         <v>0.9839816933638444</v>
@@ -1284,3901 +1284,2926 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_lasso</t>
+          <t>linear_regression_ridge</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6528115522534124</v>
+        <v>0.6263861878371352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7679423732031505</v>
+        <v>0.7316116193568294</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4205336623228194</v>
+        <v>0.414781326095942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4827592372391598</v>
+        <v>0.4740897949422319</v>
       </c>
       <c r="F6" t="n">
-        <v>0.589735488560887</v>
+        <v>0.5352555615779222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9830764784969278</v>
+        <v>0.9834181080822948</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.6411992958469781</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7177419050474797</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3066361556064073</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3686535506078341</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5151534422611854</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9709262814782887</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7200610221205187</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6411992958469781</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7177419050474797</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3066361556064073</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3686535506078341</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5151534422611854</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9709262814782887</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7200610221205187</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6385170653283155</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7115941736851382</v>
+        <v>0.6712184592067262</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3070175438596491</v>
+        <v>0.3089244851258581</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.364830432686542</v>
+        <v>0.3510103127695428</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5063662680226346</v>
+        <v>0.4505342199798516</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9703755721377196</v>
+        <v>0.9707967928451254</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7189168573607932</v>
+        <v>0.7135774218154081</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.610439352886704</v>
+        <v>0.5907774881041755</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6785017562802538</v>
+        <v>0.6455208746184804</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2735596342531937</v>
+        <v>0.2690330156166856</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3225051034870829</v>
+        <v>0.3120740861752263</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4603646332753888</v>
+        <v>0.4166971995682079</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9738347247494105</v>
+        <v>0.9742672718857218</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7517162471395881</v>
+        <v>0.7547673531655225</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6411992958469781</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7177419050474797</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.3066361556064073</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3686535506078341</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5151534422611854</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9709262814782887</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7200610221205187</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6116713794434115</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.7192689658419766</v>
+        <v>0.6735334670242851</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.3001525553012967</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3663617789643335</v>
+        <v>0.3496448733061608</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.5173478452233866</v>
+        <v>0.4536473312017537</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.9717974981449146</v>
+        <v>0.9717056622348698</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.7269260106788711</v>
+        <v>0.7261632341723875</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.6135552836421149</v>
+        <v>0.5888375930010146</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.6835387010751212</v>
+        <v>0.6462638316609773</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2773735167856117</v>
+        <v>0.2713213451361364</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.3290711477981874</v>
+        <v>0.3162704543376215</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.4672251558674638</v>
+        <v>0.417656940113128</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.9736042166151977</v>
+        <v>0.9741720686589753</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.7479023646071701</v>
+        <v>0.7513348588863463</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9843630816170862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>lad_regression</t>
+          <t>linear_regression_lasso</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.67657239489444</v>
+        <v>0.6312458059434918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.792898542893642</v>
+        <v>0.7410439357100114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4124044954792211</v>
+        <v>0.4109692367380578</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4702092071498097</v>
+        <v>0.4710655860191665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6286880993228606</v>
+        <v>0.5491461146525835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9821599561146798</v>
+        <v>0.9838099412984863</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.6547368911584128</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7323614606613968</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2951945080091533</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="M7" t="n">
-        <v>0.352687742533641</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5363533090620948</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9707123038078842</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7372234935163997</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6553191383976719</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7348341737140682</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2951945080091533</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3541479954146462</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5399812628580374</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9703287358235967</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7379862700228833</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6553191383976719</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7263212520910767</v>
+        <v>0.681355270509558</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2974828375286041</v>
+        <v>0.2955758962623951</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3464843040345704</v>
+        <v>0.3437590023197471</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5275425612391493</v>
+        <v>0.464245004651153</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.971168116041407</v>
+        <v>0.9719863739999069</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7345537757437071</v>
+        <v>0.7276887871853547</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6274032427449656</v>
+        <v>0.5846139335027085</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6952896570655486</v>
+        <v>0.6450512289276243</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2589231126520366</v>
+        <v>0.2587323910926906</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3010702904370675</v>
+        <v>0.3014148396601551</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4834277072223281</v>
+        <v>0.4160910879410384</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9739296218564568</v>
+        <v>0.9751559373752562</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7745995423340961</v>
+        <v>0.7646834477498093</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.9839816933638444</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6553191383976719</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7348341737140682</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2951945080091533</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3541479954146462</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5399812628580374</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9703287358235967</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7379862700228833</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.648297659314349</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.7225030152959173</v>
+        <v>0.6774828800787883</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2845156369183829</v>
+        <v>0.2833714721586575</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3376901428458093</v>
+        <v>0.3381537603188229</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.5220106071116926</v>
+        <v>0.4589830527998498</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.9711442387047953</v>
+        <v>0.9727268775545689</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.7490465293668955</v>
+        <v>0.7410373760488177</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.6295272406970097</v>
+        <v>0.5891628694944161</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.6992798805361535</v>
+        <v>0.6524634856781336</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2623556069312128</v>
+        <v>0.2640718266380758</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.3071525328810819</v>
+        <v>0.3103748620744521</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.4889923513226572</v>
+        <v>0.4257086001432601</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.9737774803654824</v>
+        <v>0.9747365533860513</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.7707856598016781</v>
+        <v>0.7593440122044242</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>huber_regression</t>
+          <t>lad_regression</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6652193049856223</v>
+        <v>0.652789895694072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7781052709742114</v>
+        <v>0.7640917584836886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4102532119980035</v>
+        <v>0.4017644597747589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4664344688950706</v>
+        <v>0.4571962504296854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6054478127178511</v>
+        <v>0.5838362153826955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9825805645826854</v>
+        <v>0.9831107639033445</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.6570627844199652</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7328397872255279</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3555642383023772</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="N8" t="n">
-        <v>0.537054153740757</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9703021034096837</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7341723874904653</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Q8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6485917385580128</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7278486923498924</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2932875667429443</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3526899099157835</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5297637189554483</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9709388323859949</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7376048817696415</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6567724982187333</v>
+        <v>0.6373213394375848</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7307545052963216</v>
+        <v>0.6938212673397409</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2978642257818459</v>
+        <v>0.2871853546910755</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3512777821296444</v>
+        <v>0.3228659493351466</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5340021470108717</v>
+        <v>0.4813879510129243</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9711117900165794</v>
+        <v>0.9716165814021261</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7349351639969489</v>
+        <v>0.7429443173150267</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6259523214513305</v>
+        <v>0.6014235086779665</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6929851960188033</v>
+        <v>0.6586035232828878</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2615692840125212</v>
+        <v>0.2520848238815967</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.3034862562043029</v>
+        <v>0.290149713165347</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4802284819012191</v>
+        <v>0.4337586008806333</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9740015599859919</v>
+        <v>0.9749052253408337</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7700228832951945</v>
+        <v>0.7772692601067888</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6485917385580128</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7278486923498924</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2932875667429443</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.3526899099157835</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5297637189554483</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.9709388323859949</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7376048817696415</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.6471200059181423</v>
+        <v>0.6258480135618621</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.7267735517071439</v>
+        <v>0.6992924440796943</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2868039664378337</v>
+        <v>0.2757437070938215</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3470445804308047</v>
+        <v>0.3341580608237784</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.5281997954610166</v>
+        <v>0.4890099223469523</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.971773620808303</v>
+        <v>0.9723990233557086</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.7448512585812357</v>
+        <v>0.7559115179252479</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.6253427318069877</v>
+        <v>0.6023739715079341</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.6948733387367847</v>
+        <v>0.6641249832343022</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.263857613531972</v>
+        <v>0.2562800946672565</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.3081771245650312</v>
+        <v>0.2984600696911182</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.4828489568872064</v>
+        <v>0.4410619933559622</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.9739222749836532</v>
+        <v>0.9747016557402342</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.7662090007627765</v>
+        <v>0.7715484363081617</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9832189168573608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>linear_svm</t>
+          <t>huber_regression</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6669233806868007</v>
+        <v>0.6442864852215702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7817042092982959</v>
+        <v>0.7536669697897587</v>
       </c>
       <c r="D9" t="n">
-        <v>0.409728346969727</v>
+        <v>0.4017667602710364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4674898769109678</v>
+        <v>0.4571356079102252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6110614708346739</v>
+        <v>0.568013901352077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.982534646627663</v>
+        <v>0.9834034143366875</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.6547368911584128</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7325208701734874</v>
+        <v>0.7011559115060457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2974828375286041</v>
+        <v>0.2848970251716247</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3560923716663704</v>
+        <v>0.3390084855364167</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5365868252397232</v>
+        <v>0.4916196122398738</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9705837335338213</v>
+        <v>0.9714910723250648</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7349351639969489</v>
+        <v>0.7452326468344775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6488856845230502</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7281437759019274</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3484662977832426</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5301933583847162</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9710184235080338</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7425629290617849</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6500601392116845</v>
+        <v>0.6450539390522346</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7170756219898853</v>
+        <v>0.7177294662949387</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2944317315026697</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3388788340992314</v>
+        <v>0.3565021476283733</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5141974476521808</v>
+        <v>0.5151355867880176</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.9706798551196684</v>
+        <v>0.9708889348748705</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7387490465293669</v>
+        <v>0.7356979405034325</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.979023646071701</v>
+        <v>0.9786422578184591</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6251394779420241</v>
+        <v>0.5991753671276419</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6946155743504779</v>
+        <v>0.6544535298966495</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.261113098301443</v>
+        <v>0.2501264650034414</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.3067561500319323</v>
+        <v>0.2851156614529187</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4824907961302444</v>
+        <v>0.4283094227941847</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9740410494273113</v>
+        <v>0.9751645087268604</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7704042715484363</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="AO9" t="n">
         <v>0.9813119755911518</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6488856845230502</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7281437759019274</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.3484662977832426</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5301933583847162</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.9710184235080338</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.7425629290617849</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6197241087891391</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.716215783252158</v>
+        <v>0.681424241257259</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2749809305873379</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3331833686128088</v>
+        <v>0.3111049978014757</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.5129650481795022</v>
+        <v>0.4643389965730311</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.972526675270671</v>
+        <v>0.9733091172242535</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.7570556826849733</v>
+        <v>0.761632341723875</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.6248343609536727</v>
+        <v>0.6017160680906559</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.6968580625946184</v>
+        <v>0.6641558106393134</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.263020039567652</v>
+        <v>0.2547031240423431</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.3103658790115701</v>
+        <v>0.2969719067882943</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.4856111594031251</v>
+        <v>0.4411029408059635</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.9739501318763668</v>
+        <v>0.974648084792708</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.7673531655225019</v>
+        <v>0.7738367658276125</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9820747520976354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>kernel_svm</t>
+          <t>linear_svm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3424249040252524</v>
+        <v>0.6477113594984002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3517936496475206</v>
+        <v>0.7577548363339487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2252797433649876</v>
+        <v>0.4009263830657261</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2245826869982481</v>
+        <v>0.4561800796510678</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1237587719323225</v>
+        <v>0.5741923919874893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9952673894356867</v>
+        <v>0.9832711706262229</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.3796903471585766</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4208164865736684</v>
+        <v>0.699761681908686</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1296720061022121</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1569406855031399</v>
+        <v>0.3392291978076943</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1770865153722064</v>
+        <v>0.4896664114676731</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9881017394945841</v>
+        <v>0.9714130118015267</v>
       </c>
       <c r="P10" t="n">
-        <v>0.876048817696415</v>
+        <v>0.7444698703279939</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3796903471585766</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4208164865736684</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1296720061022121</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1569406855031399</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1770865153722064</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9881017394945841</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="X10" t="n">
-        <v>0.876048817696415</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3963987390691621</v>
+        <v>0.6331185150958167</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4332726973301468</v>
+        <v>0.7072269509378036</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1434019832189169</v>
+        <v>0.2841342486651411</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1686248320326383</v>
+        <v>0.3436047581048595</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.187725230251741</v>
+        <v>0.5001699601327825</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9866152222306576</v>
+        <v>0.9717356619654844</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8619374523264683</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9774980930587338</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3371716712997535</v>
+        <v>0.5995185717028848</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.357279046417532</v>
+        <v>0.6547529479697474</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.09937665244777971</v>
+        <v>0.2528520087727555</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1077666879329969</v>
+        <v>0.2883099523900521</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.127648317009021</v>
+        <v>0.4287014228750747</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9899761104186003</v>
+        <v>0.9749523677746568</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.906559877955759</v>
+        <v>0.7757437070938215</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.3796903471585766</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4208164865736684</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1296720061022121</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1569406855031399</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1770865153722064</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.9881017394945841</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.876048817696415</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3674390311978264</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.4091595389635791</v>
+        <v>0.6875349248747908</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1212814645308924</v>
+        <v>0.2745995423340961</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1476200299461985</v>
+        <v>0.3256642579412694</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.1674115283248886</v>
+        <v>0.4727042729225843</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.988731733837492</v>
+        <v>0.9725055530113608</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.8840579710144928</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.3377367675872895</v>
+        <v>0.6004720497878253</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.3584343980520854</v>
+        <v>0.6596572835622101</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1005208172075051</v>
+        <v>0.257810056064899</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.109111186974622</v>
+        <v>0.2973442529900781</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1284752177069608</v>
+        <v>0.435147731756674</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.9899314169423785</v>
+        <v>0.9746762478051217</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.9050343249427918</v>
+        <v>0.7688787185354691</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9836003051106026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>kernel_svm</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3346050121553766</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.3426901277116828</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.2208697775877884</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.2196799150125712</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.1174365236310494</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.995572896896436</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3886254601589464</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4238602870934932</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1388253241800153</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1644176996489239</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1796575429749785</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9872874610921861</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8665141113653699</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3238766817579031</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.3399382958011806</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.0943407998544715</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1023807000736923</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.115558044952211</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9904190656247168</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.910373760488177</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>0.996186117467582</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="AW11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3579754923025386</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.3999382306953557</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1450811572612941</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1599505883717316</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9891143834626791</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8882532418001525</v>
       </c>
       <c r="BE11" t="n">
-        <v>1</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3256382498206184</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.3430880490365571</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.09624774112068049</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1050496628568776</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.117709409391711</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9903425356996794</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="BM11" t="n">
-        <v>1</v>
+        <v>0.9965675057208238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>random_forest</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.156102677000077</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1767609125532896</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09030968726163228</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1004761560495976</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03124442020667169</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9996026566292058</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.1913459492939759</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2622575285011545</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03356216628527842</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0628799044171786</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06877901125553385</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9980500175100468</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P12" t="n">
-        <v>0.967581998474447</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9992372234935164</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1789877461512693</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2492960838672684</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02974828375286041</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05722647016330346</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06214853743155612</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9982955255095669</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1913459492939759</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2585259663648851</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.06421794662537753</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06683567528489767</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9977876729270186</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.965675057208238</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9992372234935164</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1077457177989703</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.009968450614597793</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.01160913970401535</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.999369699537392</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1789877461512693</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2492960838672684</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.02974828375286041</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.05722647016330346</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.06214853743155612</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9982955255095669</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1757624775445141</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2425211354785897</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.02936689549961861</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.05619877249430433</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05881650115382447</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.9983047091005713</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.971395881006865</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.9992372234935164</v>
+        <v>1</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1077457177989703</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.009968450614597793</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01160913970401535</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.999369699537392</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>random_forest</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.041565035149974e-07</v>
+        <v>0.1491435452892591</v>
       </c>
       <c r="C13" t="n">
-        <v>2.033333923138991e-07</v>
+        <v>0.1656885508612023</v>
       </c>
       <c r="D13" t="n">
-        <v>9.682648323848149e-08</v>
+        <v>0.09080015255530124</v>
       </c>
       <c r="E13" t="n">
-        <v>9.544348075851778e-08</v>
+        <v>0.09976022088527692</v>
       </c>
       <c r="F13" t="n">
-        <v>4.134446842987799e-14</v>
+        <v>0.02745269588648522</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9997520430428788</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1842377663198298</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2522374353345713</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03318077803203661</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06198303469474448</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06362372378416203</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9980561399040498</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9672006102212052</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1952916417161268</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2586233917322064</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03737604881769641</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06524536966165273</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06688605875107027</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.997516450872686</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9630053394355453</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.101476513723764</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1517165212272555</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01029748459910116</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.02301790552707317</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.02301790281330026</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9995619427090858</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9897025171624714</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="AW13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1702513061517497</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2411046514887463</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02822273073989321</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05649076388009226</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05813145296950981</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984528710354438</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9721586575133486</v>
       </c>
       <c r="BE13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.101476513723764</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1517165212272555</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.01029748459910116</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.02301790552707317</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.02301790281330026</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.9995619427090858</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.9897025171624714</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="BM13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_probit</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6297966206415149</v>
+        <v>0.001055214695283895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6835143968750945</v>
+        <v>0.001027226248978608</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2890922959572845</v>
+        <v>0.0004599446475724733</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3204581699408555</v>
+        <v>0.0004630844662941633</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4671919307355243</v>
+        <v>1.055193766590661e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9710879126799677</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.9813119755911518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_logit</t>
+          <t>linear_ordinal_model_probit</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6057189939391134</v>
+        <v>0.6157109092117414</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6560878893193587</v>
+        <v>0.6696991741327074</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2723112128146453</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3029632478052835</v>
+        <v>0.3169364398699616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4304513185115311</v>
+        <v>0.4484969838340304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9730899355189464</v>
+        <v>0.9721094341193671</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="N15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="V15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9816933638443935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ordered_random_forest</t>
+          <t>linear_ordinal_model_logit</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4592468878966035</v>
+        <v>0.5968388631178783</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4843465835623291</v>
+        <v>0.6487886640938578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1651411136536995</v>
+        <v>0.2585812356979405</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1813922344958692</v>
+        <v>0.290994593767527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2345916130085002</v>
+        <v>0.4209267306566926</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9829537244971678</v>
+        <v>0.9740661512427236</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9824561403508771</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>logisticAT</t>
+          <t>ordered_random_forest</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5990712364156152</v>
+        <v>0.4592468878966035</v>
       </c>
       <c r="C17" t="n">
-        <v>0.652400042632619</v>
+        <v>0.4758022124461155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2711670480549199</v>
+        <v>0.1674294431731503</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3066432892257088</v>
+        <v>0.1817100082615581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.425625815627043</v>
+        <v>0.2263877453686184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9732096283217049</v>
+        <v>0.982874439494829</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="K17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="S17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="X17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9881769641495042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>logisticIT</t>
+          <t>logisticAT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6012953218454526</v>
+        <v>0.584245228180266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6554141168256328</v>
+        <v>0.6296418016160013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2532418001525553</v>
+        <v>0.2665903890160183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2840392420449004</v>
+        <v>0.2973805763329034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4295676645343242</v>
+        <v>0.3964487983422439</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9738631938815243</v>
+        <v>0.97344503437112</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.982837528604119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>simple_or</t>
+          <t>logisticIT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.5984342652238843</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.6465551597900934</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.2551487414187643</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.2856473264998776</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.4180335746511932</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9736287061912097</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="W19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BE19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BM19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>gpor</t>
+          <t>simple_or</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4875550102718926</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5226220828539146</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3363446967840387</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3520525397362759</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2731338414865641</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9890849959714647</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X20" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5461186812727502</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.59994430936737</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.2448512585812357</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2865768573386994</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3599331743422906</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9765928632477586</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.7696414950419527</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9908466819221968</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.4925067807267072</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.5272012781856399</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.1906941266209001</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.2071338128732606</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.2779411877205725</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.9805956844469151</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.8230358504958047</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.9916094584286804</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.5232941484744622</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.5724781614459714</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.2227307398932113</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.2579009100553506</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.3277312453325598</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.9786842730391808</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.7906178489702517</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.4955946277833521</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.5313593784126814</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.1937452326468345</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.2115354141797993</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.2823427890271111</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.9804591550606484</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.8199847444698704</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.9916094584286804</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>coral</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5636456466171095</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6126713152949426</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.2520976353928299</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.2817210223161782</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3753661405852349</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9772993875157039</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0.5753651047933673</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0.6368343873158454</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.2654462242562929</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>0.3119129185988915</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0.4055580368679482</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0.9764039873927662</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0.7540045766590389</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0.9862700228832952</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>corn</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4287530035609636</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4868131625951119</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1700991609458429</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.2180670612254195</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2369870552758549</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.985922779468919</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0.4414627927771036</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0.511575984509805</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0.1811594202898551</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0.2427899938767409</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0.2617099879271763</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0.9855055383176151</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0.8249427917620137</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0.9946605644546148</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>spacecutter</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6616900442968645</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7059514755944331</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.3485888634630053</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.3863615049764412</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.4983674858939574</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9632377790893306</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0.6725522049215027</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>0.7287114763819745</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0.3630816170861937</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>0.4190144348932808</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0.531020415810797</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0.9622312575152386</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0.6636155606407322</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0.9801678108314263</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>nn_rank</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.4349351372422477</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4806843085927738</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.1571319603356217</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1789383247946659</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.231057404527313</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.985444008257885</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0.4533963701854375</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>0.5174434427249919</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>0.1735316552250191</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0.2156286366864448</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0.2677477164190919</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0.9846888109576158</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0.8356216628527842</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0.9935163996948894</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>condor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.4978979459760505</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5517009882176608</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2082379862700229</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.2465789277406037</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3043739804003435</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9838607571687111</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0.5085088354177737</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0.5749321085284655</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0.2204424103737605</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0.2747059558974528</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0.3305469294169873</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0.9826586251062235</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0.7940503432494279</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0.9877955758962624</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,1001 +894,1001 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>linear_regression</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7811936902327505</v>
+        <v>0.6261614537715098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8689698945656756</v>
+        <v>0.7305555531966975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4689804220696669</v>
+        <v>0.4159106390836186</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5133830230090558</v>
+        <v>0.4748821362587158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7551086776614815</v>
+        <v>0.5337114163065327</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9669191746033301</v>
+        <v>0.9832240281924</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.8188287667144363</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9104536897739206</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4780874897824713</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8289259212229464</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9571221197197413</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6540808543096872</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8188287667144363</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9104536897739206</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4780874897824713</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8289259212229464</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9571221197197413</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6540808543096872</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8169635507004889</v>
+        <v>0.6264571115294425</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9014609378779836</v>
+        <v>0.6806768768393032</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4225781845919146</v>
+        <v>0.3062547673531655</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4760491539295028</v>
+        <v>0.3503616991451248</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8126318225198539</v>
+        <v>0.4633210106637079</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9562502908137152</v>
+        <v>0.9711485243805974</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6502669717772692</v>
+        <v>0.7196796338672768</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9496567505720824</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8028363145614692</v>
+        <v>0.591749523598273</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8812307592417018</v>
+        <v>0.6443731004622157</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.4080854309687262</v>
+        <v>0.2701935804429335</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.4480673133677124</v>
+        <v>0.3099857561373867</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7765676510337063</v>
+        <v>0.4152166925992887</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9575874216639687</v>
+        <v>0.9743015572921386</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6632341723874905</v>
+        <v>0.7532418001525553</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9500381388253242</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.8188287667144363</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9104536897739206</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4780874897824713</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8289259212229464</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9571221197197413</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.6540808543096872</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.8120469751529603</v>
+        <v>0.6132281938205507</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.8936656410260682</v>
+        <v>0.678167654644497</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.4168573607932876</v>
+        <v>0.2944317315026697</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.4660886690073096</v>
+        <v>0.3495787814162409</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.7986382779505333</v>
+        <v>0.4599113678060177</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9568812035157235</v>
+        <v>0.9717497434716913</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.6548436308161708</v>
+        <v>0.7307398932112891</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9508009153318078</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.8028363145614692</v>
+        <v>0.5930371419158755</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.8812307592417018</v>
+        <v>0.6507582003432583</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.4080854309687262</v>
+        <v>0.2740074629753516</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.4480673133677124</v>
+        <v>0.3179666620747397</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7765676510337063</v>
+        <v>0.4234862353139963</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.9575874216639687</v>
+        <v>0.9738901324151374</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.6632341723874905</v>
+        <v>0.7494279176201373</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9500381388253242</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>linear_regression</t>
+          <t>linear_regression_ridge</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6261614537715099</v>
+        <v>0.6263861878371352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7305555531966975</v>
+        <v>0.7316116193568295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4159106390836186</v>
+        <v>0.4147813260959421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4748821362587158</v>
+        <v>0.4740897949422319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5337114163065327</v>
+        <v>0.5352555615779223</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9832240281924</v>
+        <v>0.9834181080822948</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="K5" t="n">
-        <v>0.685973296805473</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Q5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="S5" t="n">
-        <v>0.685973296805473</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Y5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6264571115294425</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6806768768393032</v>
+        <v>0.6712184592067262</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3062547673531655</v>
+        <v>0.3089244851258581</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3503616991451248</v>
+        <v>0.3510103127695428</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4633210106637079</v>
+        <v>0.4505342199798516</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9711485243805974</v>
+        <v>0.9707967928451254</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7196796338672768</v>
+        <v>0.7135774218154081</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.591749523598273</v>
+        <v>0.5907774881041755</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6443731004622157</v>
+        <v>0.6455208746184804</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2701935804429335</v>
+        <v>0.2690330156166856</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3099857561373867</v>
+        <v>0.3120740861752263</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4152166925992887</v>
+        <v>0.4166971995682079</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9743015572921386</v>
+        <v>0.9742672718857218</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7532418001525553</v>
+        <v>0.7547673531655225</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.685973296805473</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="AW5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.6132281938205507</v>
+        <v>0.6116713794434115</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.678167654644497</v>
+        <v>0.6735334670242851</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.2944317315026697</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3495787814162409</v>
+        <v>0.3496448733061608</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.4599113678060177</v>
+        <v>0.4536473312017537</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.9717497434716913</v>
+        <v>0.9717056622348698</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.7307398932112891</v>
+        <v>0.7261632341723875</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.5930371419158755</v>
+        <v>0.5888375930010146</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6507582003432583</v>
+        <v>0.6462638316609773</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2740074629753516</v>
+        <v>0.2713213451361364</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3179666620747397</v>
+        <v>0.3162704543376215</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.4234862353139963</v>
+        <v>0.417656940113128</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.9738901324151374</v>
+        <v>0.9741720686589753</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.7494279176201373</v>
+        <v>0.7513348588863463</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9843630816170862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_ridge</t>
+          <t>linear_regression_lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6263861878371352</v>
+        <v>0.6312458059434917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7316116193568294</v>
+        <v>0.7410439357100114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.414781326095942</v>
+        <v>0.4109692367380578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4740897949422319</v>
+        <v>0.4710655860191665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5352555615779222</v>
+        <v>0.5491461146525835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9834181080822948</v>
+        <v>0.9838099412984863</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
+        <v>0.6135390826586817</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6847609138295824</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2909992372234935</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.349099189925642</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4688975091087247</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9719135175112713</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.7337909992372235</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.982837528604119</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6135390826586817</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6847609138295824</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2909992372234935</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.349099189925642</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.4688975091087247</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9719135175112713</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.7337909992372235</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.982837528604119</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.6178751018571973</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.6861918450696267</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3009153318077803</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.3592772618375543</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.4708592482400586</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9712679110636557</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.7238749046529367</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.6178751018571973</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.6861918450696267</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.3009153318077803</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.3592772618375543</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.4708592482400586</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.9712679110636557</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.7238749046529367</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.6200317405324783</v>
-      </c>
       <c r="AA6" t="n">
-        <v>0.6712184592067262</v>
+        <v>0.681355270509558</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3089244851258581</v>
+        <v>0.2955758962623951</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3510103127695428</v>
+        <v>0.3437590023197471</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4505342199798516</v>
+        <v>0.464245004651153</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9707967928451254</v>
+        <v>0.9719863739999069</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7135774218154081</v>
+        <v>0.7276887871853547</v>
       </c>
       <c r="AG6" t="n">
         <v>0.9843630816170862</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5907774881041755</v>
+        <v>0.5846139335027085</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6455208746184804</v>
+        <v>0.6450512289276243</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2690330156166856</v>
+        <v>0.2587323910926906</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3120740861752263</v>
+        <v>0.3014148396601551</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4166971995682079</v>
+        <v>0.4160910879410384</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9742672718857218</v>
+        <v>0.9751559373752562</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7547673531655225</v>
+        <v>0.7646834477498093</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9839816933638444</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6861918450696267</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.3009153318077803</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3592772618375543</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4708592482400586</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9712679110636557</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7238749046529367</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6116713794434115</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.6735334670242851</v>
+        <v>0.6774828800787883</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.2971014492753623</v>
+        <v>0.2833714721586575</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3496448733061608</v>
+        <v>0.3381537603188229</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4536473312017537</v>
+        <v>0.4589830527998498</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.9717056622348698</v>
+        <v>0.9727268775545689</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.7261632341723875</v>
+        <v>0.7410373760488177</v>
       </c>
       <c r="BE6" t="n">
         <v>0.9836003051106026</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.5888375930010146</v>
+        <v>0.5891628694944161</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.6462638316609773</v>
+        <v>0.6524634856781336</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2713213451361364</v>
+        <v>0.2640718266380758</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.3162704543376215</v>
+        <v>0.3103748620744521</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.417656940113128</v>
+        <v>0.4257086001432601</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.9741720686589753</v>
+        <v>0.9747365533860513</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.7513348588863463</v>
+        <v>0.7593440122044242</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_lasso</t>
+          <t>lad_regression</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6312458059434918</v>
+        <v>0.652789895694072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7410439357100114</v>
+        <v>0.7640917584836886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4109692367380578</v>
+        <v>0.4017644597747589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4710655860191665</v>
+        <v>0.4571962504296854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5491461146525835</v>
+        <v>0.5838362153826955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9838099412984863</v>
+        <v>0.9831107639033445</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M7" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="U7" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6373213394375848</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.681355270509558</v>
+        <v>0.6938212673397409</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2955758962623951</v>
+        <v>0.2871853546910755</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3437590023197471</v>
+        <v>0.3228659493351466</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.464245004651153</v>
+        <v>0.4813879510129243</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9719863739999069</v>
+        <v>0.9716165814021261</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7276887871853547</v>
+        <v>0.7429443173150267</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5846139335027085</v>
+        <v>0.6014235086779665</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6450512289276243</v>
+        <v>0.6586035232828878</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2587323910926906</v>
+        <v>0.2520848238815967</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3014148396601551</v>
+        <v>0.290149713165347</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4160910879410384</v>
+        <v>0.4337586008806333</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9751559373752562</v>
+        <v>0.9749052253408337</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7646834477498093</v>
+        <v>0.7772692601067888</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6258480135618621</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.6774828800787883</v>
+        <v>0.6992924440796943</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2833714721586575</v>
+        <v>0.2757437070938215</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3381537603188229</v>
+        <v>0.3341580608237784</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.4589830527998498</v>
+        <v>0.4890099223469523</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.9727268775545689</v>
+        <v>0.9723990233557086</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.7410373760488177</v>
+        <v>0.7559115179252479</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5891628694944161</v>
+        <v>0.6023739715079341</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.6524634856781336</v>
+        <v>0.6641249832343022</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2640718266380758</v>
+        <v>0.2562800946672565</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.3103748620744521</v>
+        <v>0.2984600696911182</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.4257086001432601</v>
+        <v>0.4410619933559622</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.9747365533860513</v>
+        <v>0.9747016557402342</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.7593440122044242</v>
+        <v>0.7715484363081617</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9832189168573608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>lad_regression</t>
+          <t>huber_regression</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.652789895694072</v>
+        <v>0.6442864852215702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7640917584836886</v>
+        <v>0.7536669697897586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4017644597747589</v>
+        <v>0.4017667602710364</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4571962504296854</v>
+        <v>0.4571356079102252</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5838362153826955</v>
+        <v>0.5680139013520769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9831107639033445</v>
+        <v>0.9834034143366875</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.7011559115060457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2848970251716247</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.3390084855364167</v>
       </c>
       <c r="N8" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4916196122398738</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.9714910723250648</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7452326468344775</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="V8" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="Y8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6450539390522346</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6938212673397409</v>
+        <v>0.7177294662949387</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2871853546910755</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3228659493351466</v>
+        <v>0.3565021476283733</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4813879510129243</v>
+        <v>0.5151355867880176</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9716165814021261</v>
+        <v>0.9708889348748705</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7429443173150267</v>
+        <v>0.7356979405034325</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9786422578184591</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6014235086779665</v>
+        <v>0.5991753671276419</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6586035232828878</v>
+        <v>0.6544535298966495</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2520848238815967</v>
+        <v>0.2501264650034414</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.290149713165347</v>
+        <v>0.2851156614529187</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4337586008806333</v>
+        <v>0.4283094227941847</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9749052253408337</v>
+        <v>0.9751645087268604</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7772692601067888</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9813119755911518</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AW8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.6258480135618621</v>
+        <v>0.6197241087891391</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.6992924440796943</v>
+        <v>0.681424241257259</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2757437070938215</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3341580608237784</v>
+        <v>0.3111049978014757</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4890099223469523</v>
+        <v>0.4643389965730311</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.9723990233557086</v>
+        <v>0.9733091172242535</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.7559115179252479</v>
+        <v>0.761632341723875</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.6023739715079341</v>
+        <v>0.6017160680906559</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.6641249832343022</v>
+        <v>0.6641558106393134</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2562800946672565</v>
+        <v>0.2547031240423431</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.2984600696911182</v>
+        <v>0.2969719067882943</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.4410619933559622</v>
+        <v>0.4411029408059635</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.9747016557402342</v>
+        <v>0.974648084792708</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.7715484363081617</v>
+        <v>0.7738367658276125</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9820747520976354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>huber_regression</t>
+          <t>linear_svm</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6442864852215702</v>
+        <v>0.6477113594984002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7536669697897587</v>
+        <v>0.7577548363339487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4017667602710364</v>
+        <v>0.4009263830657261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4571356079102252</v>
+        <v>0.4561800796510678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.568013901352077</v>
+        <v>0.5741923919874893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9834034143366875</v>
+        <v>0.9832711706262229</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1896,2314 +1896,3484 @@
         <v>0.6307043270274888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7011559115060457</v>
+        <v>0.699761681908686</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3390084855364167</v>
+        <v>0.3392291978076943</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4916196122398738</v>
+        <v>0.4896664114676731</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9714910723250648</v>
+        <v>0.9714130118015267</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7452326468344775</v>
+        <v>0.7444698703279939</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.9805491990846682</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6273696496847275</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.6982927435154092</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2837528604118993</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3392378764796223</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4876127556462769</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9716612748783481</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7456140350877193</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.9809305873379099</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.6243226688284831</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.6954793834898885</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2807017543859649</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3366628919500854</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.4836915728594753</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.971888415695859</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
+        <v>0.6331185150958167</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.7072269509378036</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.2841342486651411</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3436047581048595</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5001699601327825</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9717356619654844</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0.7486651411136537</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.6450539390522346</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.7177294662949387</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.2971014492753623</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.3565021476283733</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.5151355867880176</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.9708889348748705</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.7356979405034325</v>
-      </c>
       <c r="AG9" t="n">
-        <v>0.9786422578184591</v>
+        <v>0.9774980930587338</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5991753671276419</v>
+        <v>0.5995185717028848</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6544535298966495</v>
+        <v>0.6547529479697474</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2501264650034414</v>
+        <v>0.2528520087727555</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.2851156614529187</v>
+        <v>0.2883099523900521</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4283094227941847</v>
+        <v>0.4287014228750747</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9751645087268604</v>
+        <v>0.9749523677746568</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7757437070938215</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6243226688284831</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6954793834898885</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.3366628919500854</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4836915728594753</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.971888415695859</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.7486651411136537</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.6197241087891391</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.681424241257259</v>
+        <v>0.6875349248747908</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2745995423340961</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3111049978014757</v>
+        <v>0.3256642579412694</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.4643389965730311</v>
+        <v>0.4727042729225843</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.9733091172242535</v>
+        <v>0.9725055530113608</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.761632341723875</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.6017160680906559</v>
+        <v>0.6004720497878253</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.6641558106393134</v>
+        <v>0.6596572835622101</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.2547031240423431</v>
+        <v>0.257810056064899</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.2969719067882943</v>
+        <v>0.2973442529900781</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.4411029408059635</v>
+        <v>0.435147731756674</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.974648084792708</v>
+        <v>0.9746762478051217</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.7738367658276125</v>
+        <v>0.7688787185354691</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9836003051106026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>linear_svm</t>
+          <t>kernel_svm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6477113594984002</v>
+        <v>0.3346050121553766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7577548363339487</v>
+        <v>0.3426901277116828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4009263830657261</v>
+        <v>0.2208697775877884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4561800796510678</v>
+        <v>0.2196799150125713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5741923919874893</v>
+        <v>0.1174365236310494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9832711706262229</v>
+        <v>0.995572896896436</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.6307043270274888</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="K10" t="n">
-        <v>0.699761681908686</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3392291978076943</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4896664114676731</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9714130118015267</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7444698703279939</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6273696496847275</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6982927435154092</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2837528604118993</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3392378764796223</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4876127556462769</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9716612748783481</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6331185150958167</v>
+        <v>0.3886254601589464</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7072269509378036</v>
+        <v>0.4238602870934932</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2841342486651411</v>
+        <v>0.1388253241800153</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3436047581048595</v>
+        <v>0.1644176996489239</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.5001699601327825</v>
+        <v>0.1796575429749785</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9717356619654844</v>
+        <v>0.9872874610921861</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7486651411136537</v>
+        <v>0.8665141113653699</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9774980930587338</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.5995185717028848</v>
+        <v>0.3238766817579031</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6547529479697474</v>
+        <v>0.3399382958011806</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2528520087727555</v>
+        <v>0.0943407998544715</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2883099523900521</v>
+        <v>0.1023807000736923</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.4287014228750747</v>
+        <v>0.115558044952211</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9749523677746568</v>
+        <v>0.9904190656247168</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7757437070938215</v>
+        <v>0.910373760488177</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.996186117467582</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6273696496847275</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6982927435154092</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2837528604118993</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.3392378764796223</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4876127556462769</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.9716612748783481</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.6200317405324783</v>
+        <v>0.3579754923025386</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.6875349248747908</v>
+        <v>0.3999382306953557</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.2745995423340961</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.3256642579412694</v>
+        <v>0.1450811572612941</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.4727042729225843</v>
+        <v>0.1599505883717316</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.9725055530113608</v>
+        <v>0.9891143834626791</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.7543859649122807</v>
+        <v>0.8882532418001525</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.6004720497878253</v>
+        <v>0.3256382498206184</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.6596572835622101</v>
+        <v>0.3430880490365571</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.257810056064899</v>
+        <v>0.09624774112068049</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.2973442529900781</v>
+        <v>0.1050496628568776</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.435147731756674</v>
+        <v>0.117709409391711</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.9746762478051217</v>
+        <v>0.9903425356996794</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.7688787185354691</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9965675057208238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>kernel_svm</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3346050121553766</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3426901277116828</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2208697775877884</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2196799150125712</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1174365236310494</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.995572896896436</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O11" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W11" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3886254601589464</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4238602870934932</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1388253241800153</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1644176996489239</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1796575429749785</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9872874610921861</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.8665141113653699</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3238766817579031</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.3399382958011806</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0943407998544715</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.1023807000736923</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.115558044952211</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9904190656247168</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.910373760488177</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.996186117467582</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.3579754923025386</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.3999382306953557</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.1167048054919908</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1450811572612941</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.1599505883717316</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.9891143834626791</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.8882532418001525</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.9958047292143402</v>
+        <v>1</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.3256382498206184</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.3430880490365571</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.09624774112068049</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.1050496628568776</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.117709409391711</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.9903425356996794</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.9080854309687262</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.9965675057208238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>random_forest</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1491435452892591</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.1656885508612023</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.09080015255530124</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.09976022088527692</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.02745269588648522</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9997520430428788</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1842377663198298</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2522374353345713</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03318077803203661</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06198303469474448</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06362372378416203</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9980561399040498</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9672006102212052</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1952916417161268</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2586233917322064</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03737604881769641</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06524536966165273</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06688605875107027</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.997516450872686</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9630053394355453</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1702513061517497</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2411046514887463</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02822273073989321</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05649076388009226</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05813145296950981</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984528710354438</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9721586575133486</v>
       </c>
       <c r="BE12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="BM12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>random_forest</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1491435452892591</v>
+        <v>0.001055214695283901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1656885508612023</v>
+        <v>0.001027226248978606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09080015255530124</v>
+        <v>0.0004599446475724965</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09976022088527692</v>
+        <v>0.0004630844662941936</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02745269588648522</v>
+        <v>1.055193766590657e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9997520430428788</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.1842377663198298</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2522374353345713</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03318077803203661</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06198303469474448</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06362372378416203</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9980561399040498</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9672006102212052</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1713677201214354</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2393417951594169</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02860411899313501</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05564380582071474</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05728449491013229</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9984369528110359</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9717772692601068</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1952916417161268</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2586233917322064</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03737604881769641</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.06524536966165273</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06688605875107027</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.997516450872686</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.9630053394355453</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1097003827047376</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.01039348487614833</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01203417396556589</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9994459233427292</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1713677201214354</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2393417951594169</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.02860411899313501</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.05564380582071474</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.05728449491013229</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.9984369528110359</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.9717772692601068</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1702513061517497</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.2411046514887463</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.02822273073989321</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.05649076388009226</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.05813145296950981</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.9984528710354438</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.9721586575133486</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1097003827047376</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.01039348487614833</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01203417396556589</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.9994459233427292</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>linear_ordinal_model_probit</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001055214695283895</v>
+        <v>0.6157109092117414</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001027226248978608</v>
+        <v>0.6696991741327074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004599446475724733</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004630844662941633</v>
+        <v>0.3169364398699616</v>
       </c>
       <c r="F14" t="n">
-        <v>1.055193766590661e-06</v>
+        <v>0.4484969838340304</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9721094341193671</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.09160007022157375</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.136950269904103</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.008402332429430979</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01877349251317216</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.01875537642680666</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.9996430644296256</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BE14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.09160007022157375</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.136950269904103</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.008402332429430979</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.01877349251317216</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01875537642680666</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.9996430644296256</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BM14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_probit</t>
+          <t>linear_ordinal_model_logit</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6157109092117414</v>
+        <v>0.5968388631178783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6696991741327074</v>
+        <v>0.6487886640938578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2585812356979405</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3169364398699616</v>
+        <v>0.290994593767527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4484969838340304</v>
+        <v>0.4209267306566926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9721094341193671</v>
+        <v>0.9740661512427236</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_logit</t>
+          <t>ordered_random_forest</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5968388631178783</v>
+        <v>0.4592468878966035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6487886640938578</v>
+        <v>0.4758022124461155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2585812356979405</v>
+        <v>0.1674294431731503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.290994593767527</v>
+        <v>0.1817100082615581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4209267306566926</v>
+        <v>0.2263877453686184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9740661512427236</v>
+        <v>0.982874439494829</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ordered_random_forest</t>
+          <t>logisticAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4592468878966035</v>
+        <v>0.584245228180266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4758022124461155</v>
+        <v>0.6296418016160013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1674294431731503</v>
+        <v>0.2665903890160183</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1817100082615581</v>
+        <v>0.2973805763329034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2263877453686184</v>
+        <v>0.3964487983422439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.982874439494829</v>
+        <v>0.97344503437112</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>logisticAT</t>
+          <t>logisticIT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.584245228180266</v>
+        <v>0.5984342652238843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6296418016160013</v>
+        <v>0.6465551597900934</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2665903890160183</v>
+        <v>0.2551487414187643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2973805763329034</v>
+        <v>0.2856473264998776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964487983422439</v>
+        <v>0.4180335746511932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.97344503437112</v>
+        <v>0.9736287061912097</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>logisticIT</t>
+          <t>simple_or</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5984342652238843</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6465551597900934</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2551487414187643</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2856473264998776</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4180335746511932</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9736287061912097</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>simple_or</t>
+          <t>gpor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.4875550102718926</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.5226220828539146</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.3363446967840387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3520525397362759</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2731338414865641</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.9890849959714647</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5461186812727502</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.59994430936737</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2448512585812357</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2865768573386994</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3599331743422906</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9765928632477586</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7696414950419527</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0.9908466819221968</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.4925067807267072</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5272012781856399</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1906941266209001</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2071338128732606</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2779411877205725</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9805956844469151</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8230358504958047</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="AW20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5232941484744622</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5724781614459714</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2227307398932113</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2579009100553506</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3277312453325598</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9786842730391808</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7906178489702517</v>
       </c>
       <c r="BE20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.4955946277833521</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5313593784126814</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1937452326468345</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2115354141797993</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2823427890271111</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9804591550606484</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8199847444698704</v>
       </c>
       <c r="BM20" t="n">
-        <v>1</v>
+        <v>0.9916094584286804</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>coral</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5636456466171095</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6126713152949426</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2520976353928299</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2817210223161782</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3753661405852349</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9772993875157039</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.5753651047933673</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.6368343873158454</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.2654462242562929</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.3119129185988915</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.4055580368679482</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0.9764039873927662</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.7540045766590389</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0.9862700228832952</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>corn</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4287530035609636</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4868131625951119</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1700991609458429</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2180670612254195</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2369870552758549</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.985922779468919</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.4414627927771036</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.511575984509805</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.2427899938767409</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.2617099879271763</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0.9855055383176151</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.8249427917620137</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.9946605644546148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>spacecutter</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6616900442968645</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7059514755944331</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3485888634630053</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3863615049764412</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4983674858939574</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9632377790893306</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.6725522049215027</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0.7287114763819745</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0.3630816170861937</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.4190144348932808</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0.531020415810797</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0.9622312575152386</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0.6636155606407322</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0.9801678108314263</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>nn_rank</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4349351372422477</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4806843085927738</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1571319603356217</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1789383247946659</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.231057404527313</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.985444008257885</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0.4533963701854375</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0.5174434427249919</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0.1735316552250191</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0.2156286366864448</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.2677477164190919</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0.9846888109576158</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0.8356216628527842</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0.9935163996948894</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>condor</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4978979459760505</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5517009882176608</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2082379862700229</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2465789277406037</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3043739804003435</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9838607571687111</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>or_cnn</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4878383646484595</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5425236923704343</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2424969247264742</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2943319567832496</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.983216069080196</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.9897025171624714</v>
       </c>
     </row>
   </sheetData>

--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,192 +898,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.649611946771002</v>
+        <v>0.6261614537715098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7612709674238874</v>
+        <v>0.7305555531966975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.423260248971465</v>
+        <v>0.4159106390836186</v>
       </c>
       <c r="E4" t="n">
-        <v>0.484901378328924</v>
+        <v>0.4748821362587158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5795334858425015</v>
+        <v>0.5337114163065327</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9828493376794167</v>
+        <v>0.9832240281924</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.6500601392116845</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7263242938406913</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3203661327231122</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3842614652977973</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5275469798231789</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9697278228522029</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7059496567505721</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6497667245547996</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7280522563164012</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3176964149504195</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3817677815634063</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5300600879274028</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9698031282984397</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6406042151657894</v>
+        <v>0.6264571115294425</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7156582122053802</v>
+        <v>0.6806768768393032</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3142639206712433</v>
+        <v>0.3062547673531655</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3764532023634383</v>
+        <v>0.3503616991451248</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5121666766970009</v>
+        <v>0.4633210106637079</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.970951383293701</v>
+        <v>0.9711485243805974</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7116704805491991</v>
+        <v>0.7196796338672768</v>
       </c>
       <c r="AG4" t="n">
+        <v>0.9820747520976354</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.591749523598273</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.6443731004622157</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2701935804429335</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.3099857561373867</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.4152166925992887</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.9743015572921386</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.7532418001525553</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.9843630816170862</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.6184920516882376</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.685973296805473</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.3016781083142639</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.3589773775276653</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.4705593639301696</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.9712082177221266</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.7231121281464531</v>
+      </c>
+      <c r="AW4" t="n">
         <v>0.9824561403508771</v>
       </c>
-      <c r="AH4" t="n">
-        <v>0.6138597438214468</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.6807896748070217</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.2807836480155358</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.3284302340410733</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.4634745813238503</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.9734242182315097</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.7437070938215103</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="AX4" t="n">
+        <v>0.6132281938205507</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.678167654644497</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.2944317315026697</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.3495787814162409</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.4599113678060177</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9717497434716913</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.7307398932112891</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.9820747520976354</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.5930371419158755</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.6507582003432583</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.2740074629753516</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.3179666620747397</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.4234862353139963</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.9738901324151374</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.7494279176201373</v>
+      </c>
+      <c r="BM4" t="n">
         <v>0.9839816933638444</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.6497667245547996</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.7280522563164012</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.3176964149504195</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.3817677815634063</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.5300600879274028</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.9698031282984397</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.7101449275362319</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.9809305873379099</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0.6426845869171515</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.7226114334966123</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.3047292143401983</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.3693023713070546</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.5221672838200289</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.9704514898233567</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.7234935163996948</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.9816933638443935</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.6185019069357501</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.6932334939211495</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.2849789188011957</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.3425206637602032</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.4805726770941244</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.9729815691450934</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.7402745995423341</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.9832189168573608</v>
       </c>
     </row>
     <row r="5">
@@ -1093,192 +1093,192 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6504749189330395</v>
+        <v>0.6263861878371352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7629211828622027</v>
+        <v>0.7316116193568295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.423599050966936</v>
+        <v>0.4147813260959421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4857594687408376</v>
+        <v>0.4740897949422319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5820487312598626</v>
+        <v>0.5352555615779223</v>
       </c>
       <c r="G5" t="n">
-        <v>0.982870153819027</v>
+        <v>0.9834181080822948</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.6474146200949885</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7255227119003247</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3169336384439359</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="M5" t="n">
-        <v>0.381191631663723</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5263832054832015</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9700767993103735</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7093821510297483</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6474146200949885</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7255227119003247</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3169336384439359</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="U5" t="n">
-        <v>0.381191631663723</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5263832054832015</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9700767993103735</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7093821510297483</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6544455732836318</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7386677295857886</v>
+        <v>0.6712184592067262</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3230358504958047</v>
+        <v>0.3089244851258581</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3948980380297862</v>
+        <v>0.3510103127695428</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5456300147314238</v>
+        <v>0.4505342199798516</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9701775126917228</v>
+        <v>0.9707967928451254</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7051868802440885</v>
+        <v>0.7135774218154081</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6157220275943561</v>
+        <v>0.5907774881041755</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6900104978035106</v>
+        <v>0.6455208746184804</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2823095866863678</v>
+        <v>0.2690330156166856</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3385908266306456</v>
+        <v>0.3120740861752263</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4761144870790486</v>
+        <v>0.4166971995682079</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9732362607356179</v>
+        <v>0.9742672718857218</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7425629290617849</v>
+        <v>0.7547673531655225</v>
       </c>
       <c r="AO5" t="n">
         <v>0.9836003051106026</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6474146200949885</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7255227119003247</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3169336384439359</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.381191631663723</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5263832054832015</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9700767993103735</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7093821510297483</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.6456449185065174</v>
+        <v>0.6116713794434115</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.7194772172929014</v>
+        <v>0.6735334670242851</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3131197559115179</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3688010057475393</v>
+        <v>0.3496448733061608</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.5176474662035367</v>
+        <v>0.4536473312017537</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.9703792455741214</v>
+        <v>0.9717056622348698</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.7135774218154081</v>
+        <v>0.7261632341723875</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.6172686259086185</v>
+        <v>0.5888375930010146</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6920590869885842</v>
+        <v>0.6462638316609773</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2849793044590604</v>
+        <v>0.2713213451361364</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3419397177787551</v>
+        <v>0.3162704543376215</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.4789457798834728</v>
+        <v>0.417656940113128</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.9731759551546884</v>
+        <v>0.9741720686589753</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.7395118230358505</v>
+        <v>0.7513348588863463</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9843630816170862</v>
       </c>
     </row>
     <row r="6">
@@ -1288,189 +1288,189 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6528115522534124</v>
+        <v>0.6312458059434917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7679423732031505</v>
+        <v>0.7410439357100114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4205336623228194</v>
+        <v>0.4109692367380578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4827592372391598</v>
+        <v>0.4710655860191665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.589735488560887</v>
+        <v>0.5491461146525835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9830764784969278</v>
+        <v>0.9838099412984863</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.6411992958469781</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7177419050474797</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3066361556064073</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3686535506078341</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5151534422611854</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9709262814782887</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7200610221205187</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6411992958469781</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7177419050474797</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3066361556064073</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3686535506078341</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5151534422611854</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9709262814782887</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7200610221205187</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6385170653283155</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7115941736851382</v>
+        <v>0.681355270509558</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3070175438596491</v>
+        <v>0.2955758962623951</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.364830432686542</v>
+        <v>0.3437590023197471</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5063662680226346</v>
+        <v>0.464245004651153</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9703755721377196</v>
+        <v>0.9719863739999069</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7189168573607932</v>
+        <v>0.7276887871853547</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.610439352886704</v>
+        <v>0.5846139335027085</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6785017562802538</v>
+        <v>0.6450512289276243</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2735596342531937</v>
+        <v>0.2587323910926906</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3225051034870829</v>
+        <v>0.3014148396601551</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4603646332753888</v>
+        <v>0.4160910879410384</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9738347247494105</v>
+        <v>0.9751559373752562</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7517162471395881</v>
+        <v>0.7646834477498093</v>
       </c>
       <c r="AO6" t="n">
         <v>0.9839816933638444</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6411992958469781</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7177419050474797</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.3066361556064073</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3686535506078341</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5151534422611854</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9709262814782887</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7200610221205187</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.7192689658419766</v>
+        <v>0.6774828800787883</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.3001525553012967</v>
+        <v>0.2833714721586575</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3663617789643335</v>
+        <v>0.3381537603188229</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.5173478452233866</v>
+        <v>0.4589830527998498</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.9717974981449146</v>
+        <v>0.9727268775545689</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.7269260106788711</v>
+        <v>0.7410373760488177</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.6135552836421149</v>
+        <v>0.5891628694944161</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.6835387010751212</v>
+        <v>0.6524634856781336</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2773735167856117</v>
+        <v>0.2640718266380758</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.3290711477981874</v>
+        <v>0.3103748620744521</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.4672251558674638</v>
+        <v>0.4257086001432601</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.9736042166151977</v>
+        <v>0.9747365533860513</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.7479023646071701</v>
+        <v>0.7593440122044242</v>
       </c>
       <c r="BM6" t="n">
         <v>0.9839816933638444</v>
@@ -1483,192 +1483,192 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.67657239489444</v>
+        <v>0.652789895694072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.792898542893642</v>
+        <v>0.7640917584836886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4124044954792211</v>
+        <v>0.4017644597747589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4702092071498097</v>
+        <v>0.4571962504296854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6286880993228606</v>
+        <v>0.5838362153826955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9821599561146798</v>
+        <v>0.9831107639033445</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.6547368911584128</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7323614606613968</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2951945080091533</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M7" t="n">
-        <v>0.352687742533641</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5363533090620948</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9707123038078842</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7372234935163997</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6553191383976719</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7348341737140682</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2951945080091533</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3541479954146462</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5399812628580374</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9703287358235967</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7379862700228833</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6553191383976719</v>
+        <v>0.6373213394375848</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7263212520910767</v>
+        <v>0.6938212673397409</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2974828375286041</v>
+        <v>0.2871853546910755</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3464843040345704</v>
+        <v>0.3228659493351466</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5275425612391493</v>
+        <v>0.4813879510129243</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.971168116041407</v>
+        <v>0.9716165814021261</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7345537757437071</v>
+        <v>0.7429443173150267</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6274032427449656</v>
+        <v>0.6014235086779665</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6952896570655486</v>
+        <v>0.6586035232828878</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2589231126520366</v>
+        <v>0.2520848238815967</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3010702904370675</v>
+        <v>0.290149713165347</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4834277072223281</v>
+        <v>0.4337586008806333</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9739296218564568</v>
+        <v>0.9749052253408337</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7745995423340961</v>
+        <v>0.7772692601067888</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6553191383976719</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7348341737140682</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2951945080091533</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3541479954146462</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5399812628580374</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9703287358235967</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7379862700228833</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.648297659314349</v>
+        <v>0.6258480135618621</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.7225030152959173</v>
+        <v>0.6992924440796943</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2845156369183829</v>
+        <v>0.2757437070938215</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3376901428458093</v>
+        <v>0.3341580608237784</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.5220106071116926</v>
+        <v>0.4890099223469523</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.9711442387047953</v>
+        <v>0.9723990233557086</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.7490465293668955</v>
+        <v>0.7559115179252479</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.9797864225781846</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.6295272406970097</v>
+        <v>0.6023739715079341</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.6992798805361535</v>
+        <v>0.6641249832343022</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2623556069312128</v>
+        <v>0.2562800946672565</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.3071525328810819</v>
+        <v>0.2984600696911182</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.4889923513226572</v>
+        <v>0.4410619933559622</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.9737774803654824</v>
+        <v>0.9747016557402342</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.7707856598016781</v>
+        <v>0.7715484363081617</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9832189168573608</v>
       </c>
     </row>
     <row r="8">
@@ -1678,192 +1678,192 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6652193049856223</v>
+        <v>0.6442864852215702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7781052709742114</v>
+        <v>0.7536669697897586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4102532119980035</v>
+        <v>0.4017667602710364</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4664344688950706</v>
+        <v>0.4571356079102252</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6054478127178511</v>
+        <v>0.5680139013520769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9825805645826854</v>
+        <v>0.9834034143366875</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.6570627844199652</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7328397872255279</v>
+        <v>0.7011559115060457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.2848970251716247</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3555642383023772</v>
+        <v>0.3390084855364167</v>
       </c>
       <c r="N8" t="n">
-        <v>0.537054153740757</v>
+        <v>0.4916196122398738</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9703021034096837</v>
+        <v>0.9714910723250648</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7341723874904653</v>
+        <v>0.7452326468344775</v>
       </c>
       <c r="Q8" t="n">
+        <v>0.9809305873379099</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6243226688284831</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6954793834898885</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3366628919500854</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.4836915728594753</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.971888415695859</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.7486651411136537</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="R8" t="n">
-        <v>0.6485917385580128</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.7278486923498924</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.2932875667429443</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.3526899099157835</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.5297637189554483</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.9709388323859949</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.7376048817696415</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.9813119755911518</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0.6567724982187333</v>
+        <v>0.6450539390522346</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7307545052963216</v>
+        <v>0.7177294662949387</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2978642257818459</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3512777821296444</v>
+        <v>0.3565021476283733</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5340021470108717</v>
+        <v>0.5151355867880176</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9711117900165794</v>
+        <v>0.9708889348748705</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7349351639969489</v>
+        <v>0.7356979405034325</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9786422578184591</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6259523214513305</v>
+        <v>0.5991753671276419</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6929851960188033</v>
+        <v>0.6544535298966495</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2615692840125212</v>
+        <v>0.2501264650034414</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.3034862562043029</v>
+        <v>0.2851156614529187</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4802284819012191</v>
+        <v>0.4283094227941847</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9740015599859919</v>
+        <v>0.9751645087268604</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7700228832951945</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="AO8" t="n">
         <v>0.9813119755911518</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6485917385580128</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7278486923498924</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2932875667429443</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.3526899099157835</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5297637189554483</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.9709388323859949</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7376048817696415</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.6471200059181423</v>
+        <v>0.6197241087891391</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.7267735517071439</v>
+        <v>0.681424241257259</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2868039664378337</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3470445804308047</v>
+        <v>0.3111049978014757</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.5281997954610166</v>
+        <v>0.4643389965730311</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.971773620808303</v>
+        <v>0.9733091172242535</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.7448512585812357</v>
+        <v>0.761632341723875</v>
       </c>
       <c r="BE8" t="n">
         <v>0.9809305873379099</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.6253427318069877</v>
+        <v>0.6017160680906559</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.6948733387367847</v>
+        <v>0.6641558106393134</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.263857613531972</v>
+        <v>0.2547031240423431</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.3081771245650312</v>
+        <v>0.2969719067882943</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.4828489568872064</v>
+        <v>0.4411029408059635</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.9739222749836532</v>
+        <v>0.974648084792708</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.7662090007627765</v>
+        <v>0.7738367658276125</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9820747520976354</v>
       </c>
     </row>
     <row r="9">
@@ -1873,192 +1873,192 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6669233806868007</v>
+        <v>0.6477113594984002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7817042092982959</v>
+        <v>0.7577548363339487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.409728346969727</v>
+        <v>0.4009263830657261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4674898769109678</v>
+        <v>0.4561800796510678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6110614708346739</v>
+        <v>0.5741923919874893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.982534646627663</v>
+        <v>0.9832711706262229</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.6547368911584128</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7325208701734874</v>
+        <v>0.699761681908686</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2974828375286041</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3560923716663704</v>
+        <v>0.3392291978076943</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5365868252397232</v>
+        <v>0.4896664114676731</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9705837335338213</v>
+        <v>0.9714130118015267</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7349351639969489</v>
+        <v>0.7444698703279939</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6488856845230502</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7281437759019274</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3484662977832426</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5301933583847162</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9710184235080338</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7425629290617849</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6500601392116845</v>
+        <v>0.6331185150958167</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7170756219898853</v>
+        <v>0.7072269509378036</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2944317315026697</v>
+        <v>0.2841342486651411</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3388788340992314</v>
+        <v>0.3436047581048595</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5141974476521808</v>
+        <v>0.5001699601327825</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.9706798551196684</v>
+        <v>0.9717356619654844</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7387490465293669</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.979023646071701</v>
+        <v>0.9774980930587338</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6251394779420241</v>
+        <v>0.5995185717028848</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6946155743504779</v>
+        <v>0.6547529479697474</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.261113098301443</v>
+        <v>0.2528520087727555</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.3067561500319323</v>
+        <v>0.2883099523900521</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4824907961302444</v>
+        <v>0.4287014228750747</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9740410494273113</v>
+        <v>0.9749523677746568</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7704042715484363</v>
+        <v>0.7757437070938215</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6488856845230502</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7281437759019274</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.3484662977832426</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5301933583847162</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.9710184235080338</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.7425629290617849</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.716215783252158</v>
+        <v>0.6875349248747908</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2749809305873379</v>
+        <v>0.2745995423340961</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3331833686128088</v>
+        <v>0.3256642579412694</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.5129650481795022</v>
+        <v>0.4727042729225843</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.972526675270671</v>
+        <v>0.9725055530113608</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.7570556826849733</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.6248343609536727</v>
+        <v>0.6004720497878253</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.6968580625946184</v>
+        <v>0.6596572835622101</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.263020039567652</v>
+        <v>0.257810056064899</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.3103658790115701</v>
+        <v>0.2973442529900781</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.4856111594031251</v>
+        <v>0.435147731756674</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.9739501318763668</v>
+        <v>0.9746762478051217</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.7673531655225019</v>
+        <v>0.7688787185354691</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9836003051106026</v>
       </c>
     </row>
     <row r="10">
@@ -2068,192 +2068,192 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3424249040252524</v>
+        <v>0.3346050121553766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3517936496475206</v>
+        <v>0.3426901277116828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2252797433649876</v>
+        <v>0.2208697775877884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2245826869982481</v>
+        <v>0.2196799150125713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1237587719323225</v>
+        <v>0.1174365236310494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9952673894356867</v>
+        <v>0.995572896896436</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.3796903471585766</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4208164865736684</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1296720061022121</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1569406855031399</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1770865153722064</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9881017394945841</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="P10" t="n">
-        <v>0.876048817696415</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Q10" t="n">
         <v>0.9954233409610984</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3796903471585766</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4208164865736684</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1296720061022121</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1569406855031399</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1770865153722064</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9881017394945841</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="X10" t="n">
-        <v>0.876048817696415</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Y10" t="n">
         <v>0.9954233409610984</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3963987390691621</v>
+        <v>0.3886254601589464</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4332726973301468</v>
+        <v>0.4238602870934932</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1434019832189169</v>
+        <v>0.1388253241800153</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1686248320326383</v>
+        <v>0.1644176996489239</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.187725230251741</v>
+        <v>0.1796575429749785</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9866152222306576</v>
+        <v>0.9872874610921861</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8619374523264683</v>
+        <v>0.8665141113653699</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3371716712997535</v>
+        <v>0.3238766817579031</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.357279046417532</v>
+        <v>0.3399382958011806</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.09937665244777971</v>
+        <v>0.0943407998544715</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1077666879329969</v>
+        <v>0.1023807000736923</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.127648317009021</v>
+        <v>0.115558044952211</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9899761104186003</v>
+        <v>0.9904190656247168</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.906559877955759</v>
+        <v>0.910373760488177</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.996186117467582</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.3796903471585766</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4208164865736684</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1296720061022121</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1569406855031399</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1770865153722064</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.9881017394945841</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.876048817696415</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="AW10" t="n">
         <v>0.9954233409610984</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3674390311978264</v>
+        <v>0.3579754923025386</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.4091595389635791</v>
+        <v>0.3999382306953557</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1212814645308924</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1476200299461985</v>
+        <v>0.1450811572612941</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.1674115283248886</v>
+        <v>0.1599505883717316</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.988731733837492</v>
+        <v>0.9891143834626791</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.8840579710144928</v>
+        <v>0.8882532418001525</v>
       </c>
       <c r="BE10" t="n">
         <v>0.9958047292143402</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.3377367675872895</v>
+        <v>0.3256382498206184</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.3584343980520854</v>
+        <v>0.3430880490365571</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1005208172075051</v>
+        <v>0.09624774112068049</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.109111186974622</v>
+        <v>0.1050496628568776</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1284752177069608</v>
+        <v>0.117709409391711</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.9899314169423785</v>
+        <v>0.9903425356996794</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.9050343249427918</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9965675057208238</v>
       </c>
     </row>
     <row r="11">
@@ -2458,114 +2458,114 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.156102677000077</v>
+        <v>0.1491435452892591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1767609125532896</v>
+        <v>0.1656885508612023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09030968726163228</v>
+        <v>0.09080015255530124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1004761560495976</v>
+        <v>0.09976022088527692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03124442020667169</v>
+        <v>0.02745269588648522</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9996026566292058</v>
+        <v>0.9997520430428788</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.1913459492939759</v>
+        <v>0.1842377663198298</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2622575285011545</v>
+        <v>0.2522374353345713</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03356216628527842</v>
+        <v>0.03318077803203661</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0628799044171786</v>
+        <v>0.06198303469474448</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06877901125553385</v>
+        <v>0.06362372378416203</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9980500175100468</v>
+        <v>0.9980561399040498</v>
       </c>
       <c r="P12" t="n">
-        <v>0.967581998474447</v>
+        <v>0.9672006102212052</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1789877461512693</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2492960838672684</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02974828375286041</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05722647016330346</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06214853743155612</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9982955255095669</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9996186117467581</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1913459492939759</v>
+        <v>0.1952916417161268</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2585259663648851</v>
+        <v>0.2586233917322064</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.03737604881769641</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.06421794662537753</v>
+        <v>0.06524536966165273</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06683567528489767</v>
+        <v>0.06688605875107027</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9977876729270186</v>
+        <v>0.997516450872686</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.965675057208238</v>
+        <v>0.9630053394355453</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AH12" t="n">
         <v>0.08949387307563464</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1077457177989703</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.007246376811594203</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.009968450614597793</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.01160913970401535</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.999369699537392</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="AN12" t="n">
         <v>0.9931350114416476</v>
@@ -2574,70 +2574,70 @@
         <v>0.9996186117467581</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1789877461512693</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2492960838672684</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.02974828375286041</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.05722647016330346</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.06214853743155612</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9982955255095669</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.9710144927536232</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="AW12" t="n">
         <v>0.9996186117467581</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1757624775445141</v>
+        <v>0.1702513061517497</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2425211354785897</v>
+        <v>0.2411046514887463</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.02936689549961861</v>
+        <v>0.02822273073989321</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.05619877249430433</v>
+        <v>0.05649076388009226</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05881650115382447</v>
+        <v>0.05813145296950981</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.9983047091005713</v>
+        <v>0.9984528710354438</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.971395881006865</v>
+        <v>0.9721586575133486</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="BF12" t="n">
         <v>0.08949387307563464</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1077457177989703</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="BH12" t="n">
         <v>0.007246376811594203</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.009968450614597793</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01160913970401535</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.999369699537392</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="BL12" t="n">
         <v>0.9931350114416476</v>
@@ -2653,19 +2653,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.041565035149974e-07</v>
+        <v>0.001055214695283901</v>
       </c>
       <c r="C13" t="n">
-        <v>2.033333923138991e-07</v>
+        <v>0.001027226248978606</v>
       </c>
       <c r="D13" t="n">
-        <v>9.682648323848149e-08</v>
+        <v>0.0004599446475724965</v>
       </c>
       <c r="E13" t="n">
-        <v>9.544348075851778e-08</v>
+        <v>0.0004630844662941936</v>
       </c>
       <c r="F13" t="n">
-        <v>4.134446842987799e-14</v>
+        <v>1.055193766590657e-06</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2745,25 +2745,25 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.101476513723764</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1517165212272555</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01029748459910116</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.02301790552707317</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.02301790281330026</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9995619427090858</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9897025171624714</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AO13" t="n">
         <v>1</v>
@@ -2817,25 +2817,25 @@
         <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.101476513723764</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1517165212272555</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.01029748459910116</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.02301790552707317</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.02301790281330026</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.9995619427090858</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.9897025171624714</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="BM13" t="n">
         <v>1</v>
@@ -2848,192 +2848,192 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6297966206415149</v>
+        <v>0.6157109092117414</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6835143968750945</v>
+        <v>0.6696991741327074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2890922959572845</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3204581699408555</v>
+        <v>0.3169364398699616</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4671919307355243</v>
+        <v>0.4484969838340304</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9710879126799677</v>
+        <v>0.9721094341193671</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.6409018245733263</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.7063483595116139</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.3032036613272311</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.3521942441900794</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.4989280049847482</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.9705350605014975</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.7254004576659039</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
     </row>
     <row r="15">
@@ -3043,192 +3043,192 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6057189939391134</v>
+        <v>0.5968388631178783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6560878893193587</v>
+        <v>0.6487886640938578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2723112128146453</v>
+        <v>0.2585812356979405</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3029632478052835</v>
+        <v>0.290994593767527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4304513185115311</v>
+        <v>0.4209267306566926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9730899355189464</v>
+        <v>0.9740661512427236</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="N15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="V15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.6172575353841849</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.6798436531738419</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2864225781845919</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.3346993220545074</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.462187392760755</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9725915726471027</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9824561403508771</v>
       </c>
     </row>
     <row r="16">
@@ -3241,189 +3241,189 @@
         <v>0.4592468878966035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4843465835623291</v>
+        <v>0.4758022124461155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1651411136536995</v>
+        <v>0.1674294431731503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1813922344958692</v>
+        <v>0.1817100082615581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2345916130085002</v>
+        <v>0.2263877453686184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9829537244971678</v>
+        <v>0.982874439494829</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.4751650722845122</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.5176566201133157</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.1800152555301297</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.2147689978345107</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.2679683763471417</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.9823075058101519</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.8371472158657514</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.9870327993897788</v>
+        <v>0.9881769641495042</v>
       </c>
     </row>
     <row r="17">
@@ -3433,192 +3433,192 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5990712364156152</v>
+        <v>0.584245228180266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.652400042632619</v>
+        <v>0.6296418016160013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2711670480549199</v>
+        <v>0.2665903890160183</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3066432892257088</v>
+        <v>0.2973805763329034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.425625815627043</v>
+        <v>0.3964487983422439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9732096283217049</v>
+        <v>0.97344503437112</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="K17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="S17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="X17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.6104230692046614</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.675678581376943</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.3375590189302239</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.4565415453315582</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.9725955522032047</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.7398932112890922</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.982837528604119</v>
       </c>
     </row>
     <row r="18">
@@ -3628,192 +3628,192 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6012953218454526</v>
+        <v>0.5984342652238843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6554141168256328</v>
+        <v>0.6465551597900934</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2532418001525553</v>
+        <v>0.2551487414187643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2840392420449004</v>
+        <v>0.2856473264998776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4295676645343242</v>
+        <v>0.4180335746511932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9738631938815243</v>
+        <v>0.9736287061912097</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="P18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="R18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="X18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AF18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AN18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AV18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BD18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.612917147290866</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.6792171296116216</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.2673531655225019</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3158074866684266</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4613359091578504</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.9732393219326194</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BL18" t="n">
         <v>0.7612509534706331</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="19">
@@ -5179,6 +5179,201 @@
       </c>
       <c r="BM25" t="n">
         <v>0.9877955758962624</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>or_cnn</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4878383646484595</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5425236923704343</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2424969247264742</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2943319567832496</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.983216069080196</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.9897025171624714</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.5001906577762333</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.5671088380475164</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.2151029748283753</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.2697774021348289</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.3216124341916042</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0.9828732150160284</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0.7974828375286042</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.9897025171624714</v>
       </c>
     </row>
   </sheetData>

--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM26"/>
+  <dimension ref="A1:BM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,1001 +894,1001 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>linear_regression</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6261614537715098</v>
+        <v>0.7811936902327506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7305555531966975</v>
+        <v>0.8689698945656757</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4159106390836186</v>
+        <v>0.4689804220696671</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4748821362587158</v>
+        <v>0.5133830230090559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5337114163065327</v>
+        <v>0.7551086776614817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9832240281924</v>
+        <v>0.9669191746033301</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.8188287667144363</v>
       </c>
       <c r="K4" t="n">
-        <v>0.685973296805473</v>
+        <v>0.9104536897739206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.4780874897824713</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.8289259212229464</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9571221197197413</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.6540808543096872</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.8188287667144363</v>
       </c>
       <c r="S4" t="n">
-        <v>0.685973296805473</v>
+        <v>0.9104536897739206</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.4780874897824713</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.8289259212229464</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9571221197197413</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.6540808543096872</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6264571115294425</v>
+        <v>0.8169635507004889</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6806768768393032</v>
+        <v>0.9014609378779836</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3062547673531655</v>
+        <v>0.4225781845919146</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3503616991451248</v>
+        <v>0.4760491539295028</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.4633210106637079</v>
+        <v>0.8126318225198539</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9711485243805974</v>
+        <v>0.9562502908137152</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7196796338672768</v>
+        <v>0.6502669717772692</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9496567505720824</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.591749523598273</v>
+        <v>0.8028363145614692</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6443731004622157</v>
+        <v>0.8812307592417018</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2701935804429335</v>
+        <v>0.4080854309687262</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3099857561373867</v>
+        <v>0.4480673133677124</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4152166925992887</v>
+        <v>0.7765676510337063</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9743015572921386</v>
+        <v>0.9575874216639687</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7532418001525553</v>
+        <v>0.6632341723874905</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9500381388253242</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.8188287667144363</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.685973296805473</v>
+        <v>0.9104536897739206</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.4780874897824713</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.8289259212229464</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9571221197197413</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.6540808543096872</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.6132281938205507</v>
+        <v>0.8120469751529603</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.678167654644497</v>
+        <v>0.8936656410260682</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2944317315026697</v>
+        <v>0.4168573607932876</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.3495787814162409</v>
+        <v>0.4660886690073096</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.4599113678060177</v>
+        <v>0.7986382779505333</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9717497434716913</v>
+        <v>0.9568812035157235</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.7307398932112891</v>
+        <v>0.6548436308161708</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9508009153318078</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.5930371419158755</v>
+        <v>0.8028363145614692</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6507582003432583</v>
+        <v>0.8812307592417018</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.2740074629753516</v>
+        <v>0.4080854309687262</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.3179666620747397</v>
+        <v>0.4480673133677124</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.4234862353139963</v>
+        <v>0.7765676510337063</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.9738901324151374</v>
+        <v>0.9575874216639687</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.7494279176201373</v>
+        <v>0.6632341723874905</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9500381388253242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_ridge</t>
+          <t>linear_regression</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6263861878371352</v>
+        <v>0.6261614537715098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7316116193568295</v>
+        <v>0.7305555531966975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4147813260959421</v>
+        <v>0.4159106390836186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4740897949422319</v>
+        <v>0.4748821362587158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5352555615779223</v>
+        <v>0.5337114163065327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9834181080822948</v>
+        <v>0.9832240281924</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6861918450696267</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3009153318077803</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3592772618375543</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4708592482400586</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9712679110636557</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7238749046529367</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Q5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6861918450696267</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3009153318077803</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3592772618375543</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4708592482400586</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9712679110636557</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7238749046529367</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Y5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6200317405324783</v>
+        <v>0.6264571115294425</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6712184592067262</v>
+        <v>0.6806768768393032</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3089244851258581</v>
+        <v>0.3062547673531655</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3510103127695428</v>
+        <v>0.3503616991451248</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4505342199798516</v>
+        <v>0.4633210106637079</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9707967928451254</v>
+        <v>0.9711485243805974</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7135774218154081</v>
+        <v>0.7196796338672768</v>
       </c>
       <c r="AG5" t="n">
+        <v>0.9820747520976354</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.591749523598273</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.6443731004622157</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.2701935804429335</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.3099857561373867</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.4152166925992887</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.9743015572921386</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.7532418001525553</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.9843630816170862</v>
       </c>
-      <c r="AH5" t="n">
-        <v>0.5907774881041755</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.6455208746184804</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.2690330156166856</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.3120740861752263</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.4166971995682079</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.9742672718857218</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.7547673531655225</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.9836003051106026</v>
-      </c>
       <c r="AP5" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6861918450696267</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3009153318077803</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.3592772618375543</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4708592482400586</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9712679110636557</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7238749046529367</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="AW5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.6116713794434115</v>
+        <v>0.6132281938205507</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.6735334670242851</v>
+        <v>0.678167654644497</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.2971014492753623</v>
+        <v>0.2944317315026697</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3496448733061608</v>
+        <v>0.3495787814162409</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.4536473312017537</v>
+        <v>0.4599113678060177</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.9717056622348698</v>
+        <v>0.9717497434716913</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.7261632341723875</v>
+        <v>0.7307398932112891</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.5888375930010146</v>
+        <v>0.5930371419158755</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6462638316609773</v>
+        <v>0.6507582003432583</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2713213451361364</v>
+        <v>0.2740074629753516</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3162704543376215</v>
+        <v>0.3179666620747397</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.417656940113128</v>
+        <v>0.4234862353139963</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.9741720686589753</v>
+        <v>0.9738901324151374</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.7513348588863463</v>
+        <v>0.7494279176201373</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_lasso</t>
+          <t>linear_regression_ridge</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6312458059434917</v>
+        <v>0.6263861878371352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7410439357100114</v>
+        <v>0.7316116193568295</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4109692367380578</v>
+        <v>0.4147813260959421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4710655860191665</v>
+        <v>0.4740897949422319</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5491461146525835</v>
+        <v>0.5352555615779223</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9838099412984863</v>
+        <v>0.9834181080822948</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="M6" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="U6" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.681355270509558</v>
+        <v>0.6712184592067262</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2955758962623951</v>
+        <v>0.3089244851258581</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3437590023197471</v>
+        <v>0.3510103127695428</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.464245004651153</v>
+        <v>0.4505342199798516</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9719863739999069</v>
+        <v>0.9707967928451254</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7276887871853547</v>
+        <v>0.7135774218154081</v>
       </c>
       <c r="AG6" t="n">
         <v>0.9843630816170862</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5846139335027085</v>
+        <v>0.5907774881041755</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6450512289276243</v>
+        <v>0.6455208746184804</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2587323910926906</v>
+        <v>0.2690330156166856</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3014148396601551</v>
+        <v>0.3120740861752263</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4160910879410384</v>
+        <v>0.4166971995682079</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9751559373752562</v>
+        <v>0.9742672718857218</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7646834477498093</v>
+        <v>0.7547673531655225</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6116713794434115</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.6774828800787883</v>
+        <v>0.6735334670242851</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.2833714721586575</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3381537603188229</v>
+        <v>0.3496448733061608</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4589830527998498</v>
+        <v>0.4536473312017537</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.9727268775545689</v>
+        <v>0.9717056622348698</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.7410373760488177</v>
+        <v>0.7261632341723875</v>
       </c>
       <c r="BE6" t="n">
         <v>0.9836003051106026</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.5891628694944161</v>
+        <v>0.5888375930010146</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.6524634856781336</v>
+        <v>0.6462638316609773</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2640718266380758</v>
+        <v>0.2713213451361364</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.3103748620744521</v>
+        <v>0.3162704543376215</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.4257086001432601</v>
+        <v>0.417656940113128</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.9747365533860513</v>
+        <v>0.9741720686589753</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.7593440122044242</v>
+        <v>0.7513348588863463</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9843630816170862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>lad_regression</t>
+          <t>linear_regression_lasso</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.652789895694072</v>
+        <v>0.6312458059434917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7640917584836886</v>
+        <v>0.7410439357100114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4017644597747589</v>
+        <v>0.4109692367380578</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4571962504296854</v>
+        <v>0.4710655860191665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5838362153826955</v>
+        <v>0.5491461146525835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9831107639033445</v>
+        <v>0.9838099412984863</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="N7" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="V7" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6938212673397409</v>
+        <v>0.681355270509558</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2871853546910755</v>
+        <v>0.2955758962623951</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3228659493351466</v>
+        <v>0.3437590023197471</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.4813879510129243</v>
+        <v>0.464245004651153</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9716165814021261</v>
+        <v>0.9719863739999069</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7429443173150267</v>
+        <v>0.7276887871853547</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6014235086779665</v>
+        <v>0.5846139335027085</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6586035232828878</v>
+        <v>0.6450512289276243</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2520848238815967</v>
+        <v>0.2587323910926906</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.290149713165347</v>
+        <v>0.3014148396601551</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4337586008806333</v>
+        <v>0.4160910879410384</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9749052253408337</v>
+        <v>0.9751559373752562</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7772692601067888</v>
+        <v>0.7646834477498093</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9839816933638444</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.6258480135618621</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.6992924440796943</v>
+        <v>0.6774828800787883</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2757437070938215</v>
+        <v>0.2833714721586575</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3341580608237784</v>
+        <v>0.3381537603188229</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.4890099223469523</v>
+        <v>0.4589830527998498</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.9723990233557086</v>
+        <v>0.9727268775545689</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.7559115179252479</v>
+        <v>0.7410373760488177</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.6023739715079341</v>
+        <v>0.5891628694944161</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.6641249832343022</v>
+        <v>0.6524634856781336</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2562800946672565</v>
+        <v>0.2640718266380758</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.2984600696911182</v>
+        <v>0.3103748620744521</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.4410619933559622</v>
+        <v>0.4257086001432601</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.9747016557402342</v>
+        <v>0.9747365533860513</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.7715484363081617</v>
+        <v>0.7593440122044242</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>huber_regression</t>
+          <t>lad_regression</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6442864852215702</v>
+        <v>0.652789895694072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7536669697897586</v>
+        <v>0.7640917584836886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4017667602710364</v>
+        <v>0.4017644597747589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4571356079102252</v>
+        <v>0.4571962504296854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5680139013520769</v>
+        <v>0.5838362153826955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9834034143366875</v>
+        <v>0.9831107639033445</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.6307043270274888</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7011559115060457</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3390084855364167</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4916196122398738</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9714910723250648</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7452326468344775</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6243226688284831</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6954793834898885</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3366628919500854</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4836915728594753</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="W8" t="n">
-        <v>0.971888415695859</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7486651411136537</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6450539390522346</v>
+        <v>0.6373213394375848</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7177294662949387</v>
+        <v>0.6938212673397409</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2971014492753623</v>
+        <v>0.2871853546910755</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3565021476283733</v>
+        <v>0.3228659493351466</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5151355867880176</v>
+        <v>0.4813879510129243</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9708889348748705</v>
+        <v>0.9716165814021261</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7356979405034325</v>
+        <v>0.7429443173150267</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9786422578184591</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.5991753671276419</v>
+        <v>0.6014235086779665</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6544535298966495</v>
+        <v>0.6586035232828878</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2501264650034414</v>
+        <v>0.2520848238815967</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.2851156614529187</v>
+        <v>0.290149713165347</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4283094227941847</v>
+        <v>0.4337586008806333</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9751645087268604</v>
+        <v>0.9749052253408337</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7772692601067888</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6243226688284831</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6954793834898885</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.3366628919500854</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4836915728594753</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.971888415695859</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7486651411136537</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.6197241087891391</v>
+        <v>0.6258480135618621</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.681424241257259</v>
+        <v>0.6992924440796943</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2757437070938215</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3111049978014757</v>
+        <v>0.3341580608237784</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4643389965730311</v>
+        <v>0.4890099223469523</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.9733091172242535</v>
+        <v>0.9723990233557086</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.761632341723875</v>
+        <v>0.7559115179252479</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.6017160680906559</v>
+        <v>0.6023739715079341</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.6641558106393134</v>
+        <v>0.6641249832343022</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2547031240423431</v>
+        <v>0.2562800946672565</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.2969719067882943</v>
+        <v>0.2984600696911182</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.4411029408059635</v>
+        <v>0.4410619933559622</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.974648084792708</v>
+        <v>0.9747016557402342</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.7738367658276125</v>
+        <v>0.7715484363081617</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9832189168573608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>linear_svm</t>
+          <t>huber_regression</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6477113594984002</v>
+        <v>0.6442864852215702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7577548363339487</v>
+        <v>0.7536669697897586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4009263830657261</v>
+        <v>0.4017667602710364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4561800796510678</v>
+        <v>0.4571356079102252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5741923919874893</v>
+        <v>0.5680139013520769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9832711706262229</v>
+        <v>0.9834034143366875</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1896,3483 +1896,3678 @@
         <v>0.6307043270274888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.699761681908686</v>
+        <v>0.7011559115060457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2848970251716247</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3392291978076943</v>
+        <v>0.3390084855364167</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4896664114676731</v>
+        <v>0.4916196122398738</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9714130118015267</v>
+        <v>0.9714910723250648</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7444698703279939</v>
+        <v>0.7452326468344775</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.9809305873379099</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6243226688284831</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.6954793834898885</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3366628919500854</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4836915728594753</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.971888415695859</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7486651411136537</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.9805491990846682</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.6273696496847275</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.6982927435154092</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2837528604118993</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3392378764796223</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.4876127556462769</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.9716612748783481</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.7456140350877193</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
+        <v>0.6450539390522346</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.7177294662949387</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.2971014492753623</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3565021476283733</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5151355867880176</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9708889348748705</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.7356979405034325</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9786422578184591</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.5991753671276419</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.6544535298966495</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.2501264650034414</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2851156614529187</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.4283094227941847</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9751645087268604</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.7791762013729977</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9813119755911518</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.6243226688284831</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.6954793834898885</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.3366628919500854</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.4836915728594753</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.971888415695859</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.7486651411136537</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.9805491990846682</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.6197241087891391</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.681424241257259</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.2688787185354691</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.3111049978014757</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.4643389965730311</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.9733091172242535</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.761632341723875</v>
+      </c>
+      <c r="BE9" t="n">
         <v>0.9809305873379099</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0.6331185150958167</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.7072269509378036</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.2841342486651411</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.3436047581048595</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.5001699601327825</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.9717356619654844</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.7486651411136537</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.9774980930587338</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.5995185717028848</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.6547529479697474</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.2528520087727555</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.2883099523900521</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.4287014228750747</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.9749523677746568</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.7757437070938215</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.9816933638443935</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.6273696496847275</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.6982927435154092</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0.2837528604118993</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.3392378764796223</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.4876127556462769</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0.9716612748783481</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0.7456140350877193</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0.9809305873379099</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0.6200317405324783</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.6875349248747908</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.2745995423340961</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.3256642579412694</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.4727042729225843</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0.9725055530113608</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.7543859649122807</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0.9816933638443935</v>
-      </c>
       <c r="BF9" t="n">
-        <v>0.6004720497878253</v>
+        <v>0.6017160680906559</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.6596572835622101</v>
+        <v>0.6641558106393134</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.257810056064899</v>
+        <v>0.2547031240423431</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.2973442529900781</v>
+        <v>0.2969719067882943</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.435147731756674</v>
+        <v>0.4411029408059635</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.9746762478051217</v>
+        <v>0.974648084792708</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.7688787185354691</v>
+        <v>0.7738367658276125</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9820747520976354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>kernel_svm</t>
+          <t>linear_svm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3346050121553766</v>
+        <v>0.6477113594984002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3426901277116828</v>
+        <v>0.7577548363339487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2208697775877884</v>
+        <v>0.4009263830657261</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2196799150125713</v>
+        <v>0.4561800796510678</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1174365236310494</v>
+        <v>0.5741923919874893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.995572896896436</v>
+        <v>0.9832711706262229</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.699761681908686</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.3392291978076943</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.4896664114676731</v>
       </c>
       <c r="O10" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9714130118015267</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.7444698703279939</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="W10" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3886254601589464</v>
+        <v>0.6331185150958167</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4238602870934932</v>
+        <v>0.7072269509378036</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1388253241800153</v>
+        <v>0.2841342486651411</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1644176996489239</v>
+        <v>0.3436047581048595</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1796575429749785</v>
+        <v>0.5001699601327825</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9872874610921861</v>
+        <v>0.9717356619654844</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8665141113653699</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9774980930587338</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3238766817579031</v>
+        <v>0.5995185717028848</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.3399382958011806</v>
+        <v>0.6547529479697474</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0943407998544715</v>
+        <v>0.2528520087727555</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1023807000736923</v>
+        <v>0.2883099523900521</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.115558044952211</v>
+        <v>0.4287014228750747</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9904190656247168</v>
+        <v>0.9749523677746568</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.910373760488177</v>
+        <v>0.7757437070938215</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.996186117467582</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9954233409610984</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3579754923025386</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.3999382306953557</v>
+        <v>0.6875349248747908</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1167048054919908</v>
+        <v>0.2745995423340961</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1450811572612941</v>
+        <v>0.3256642579412694</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.1599505883717316</v>
+        <v>0.4727042729225843</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.9891143834626791</v>
+        <v>0.9725055530113608</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.8882532418001525</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.3256382498206184</v>
+        <v>0.6004720497878253</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.3430880490365571</v>
+        <v>0.6596572835622101</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.09624774112068049</v>
+        <v>0.257810056064899</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.1050496628568776</v>
+        <v>0.2973442529900781</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.117709409391711</v>
+        <v>0.435147731756674</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.9903425356996794</v>
+        <v>0.9746762478051217</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.9080854309687262</v>
+        <v>0.7688787185354691</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.9965675057208238</v>
+        <v>0.9836003051106026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>kernel_svm</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3346050121553766</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.3426901277116828</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.2208697775877884</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.2196799150125713</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.1174365236310494</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.995572896896436</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3886254601589464</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4238602870934932</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1388253241800153</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1644176996489239</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1796575429749785</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9872874610921861</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8665141113653699</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3238766817579031</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.3399382958011806</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.0943407998544715</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1023807000736923</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.115558044952211</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9904190656247168</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.910373760488177</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>0.996186117467582</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="AW11" t="n">
-        <v>1</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3579754923025386</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.3999382306953557</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1450811572612941</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1599505883717316</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9891143834626791</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8882532418001525</v>
       </c>
       <c r="BE11" t="n">
-        <v>1</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.3256382498206184</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.3430880490365571</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.09624774112068049</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1050496628568776</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.117709409391711</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9903425356996794</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="BM11" t="n">
-        <v>1</v>
+        <v>0.9965675057208238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>random_forest</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1491435452892591</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1656885508612023</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09080015255530124</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09976022088527692</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02745269588648522</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9997520430428788</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.1842377663198298</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2522374353345713</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03318077803203661</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06198303469474448</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06362372378416203</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9980561399040498</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9672006102212052</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1713677201214354</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2393417951594169</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02860411899313501</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05564380582071474</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05728449491013229</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9984369528110359</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9717772692601068</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1952916417161268</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2586233917322064</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03737604881769641</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.06524536966165273</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06688605875107027</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.997516450872686</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.9630053394355453</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1097003827047376</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01039348487614833</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.01203417396556589</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.9994459233427292</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1713677201214354</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2393417951594169</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.02860411899313501</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.05564380582071474</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.05728449491013229</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9984369528110359</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.9717772692601068</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1702513061517497</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2411046514887463</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.02822273073989321</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.05649076388009226</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05813145296950981</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.9984528710354438</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.9721586575133486</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1097003827047376</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.01039348487614833</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01203417396556589</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.9994459233427292</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>random_forest</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001055214695283901</v>
+        <v>0.1491435452892591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001027226248978606</v>
+        <v>0.1656885508612023</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004599446475724965</v>
+        <v>0.09080015255530124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004630844662941936</v>
+        <v>0.09976022088527692</v>
       </c>
       <c r="F13" t="n">
-        <v>1.055193766590657e-06</v>
+        <v>0.02745269588648522</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9997520430428788</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1842377663198298</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2522374353345713</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03318077803203661</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06198303469474448</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06362372378416203</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9980561399040498</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9672006102212052</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1952916417161268</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2586233917322064</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03737604881769641</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06524536966165273</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06688605875107027</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.997516450872686</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9630053394355453</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.09160007022157375</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.136950269904103</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.008402332429430979</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.01877349251317216</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01875537642680666</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9996430644296256</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="AW13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1702513061517497</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2411046514887463</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02822273073989321</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05649076388009226</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05813145296950981</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984528710354438</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9721586575133486</v>
       </c>
       <c r="BE13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.09160007022157375</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.136950269904103</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.008402332429430979</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.01877349251317216</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01875537642680666</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.9996430644296256</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="BM13" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_probit</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6157109092117414</v>
+        <v>0.001055214695283901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6696991741327074</v>
+        <v>0.001027226248978606</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.0004599446475724965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3169364398699616</v>
+        <v>0.0004630844662941936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4484969838340304</v>
+        <v>1.055193766590657e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9721094341193671</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.9816933638443935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_logit</t>
+          <t>linear_ordinal_model_probit</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5968388631178783</v>
+        <v>0.6157109092117414</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6487886640938578</v>
+        <v>0.6696991741327074</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2585812356979405</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.290994593767527</v>
+        <v>0.3169364398699616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4209267306566926</v>
+        <v>0.4484969838340304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9740661512427236</v>
+        <v>0.9721094341193671</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9816933638443935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ordered_random_forest</t>
+          <t>linear_ordinal_model_logit</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4592468878966035</v>
+        <v>0.5968388631178783</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4758022124461155</v>
+        <v>0.6487886640938578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1674294431731503</v>
+        <v>0.2585812356979405</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1817100082615581</v>
+        <v>0.290994593767527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2263877453686184</v>
+        <v>0.4209267306566926</v>
       </c>
       <c r="G16" t="n">
-        <v>0.982874439494829</v>
+        <v>0.9740661512427236</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9824561403508771</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>logisticAT</t>
+          <t>ordered_random_forest</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.584245228180266</v>
+        <v>0.4592468878966035</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6296418016160013</v>
+        <v>0.4758022124461155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2665903890160183</v>
+        <v>0.1674294431731503</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2973805763329034</v>
+        <v>0.1817100082615581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3964487983422439</v>
+        <v>0.2263877453686184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.97344503437112</v>
+        <v>0.982874439494829</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="X17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9881769641495042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>logisticIT</t>
+          <t>logisticAT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5984342652238843</v>
+        <v>0.584245228180266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6465551597900934</v>
+        <v>0.6296418016160013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2551487414187643</v>
+        <v>0.2665903890160183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2856473264998776</v>
+        <v>0.2973805763329034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4180335746511932</v>
+        <v>0.3964487983422439</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9736287061912097</v>
+        <v>0.97344503437112</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.982837528604119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>simple_or</t>
+          <t>logisticIT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.5984342652238843</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.6465551597900934</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.2551487414187643</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.2856473264998776</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.4180335746511932</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9736287061912097</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="W19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BE19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BM19" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>gpor</t>
+          <t>simple_or</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4875550102718926</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5226220828539146</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3363446967840387</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3520525397362759</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2731338414865641</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9890849959714647</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X20" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5461186812727502</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.59994430936737</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.2448512585812357</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2865768573386994</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3599331743422906</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9765928632477586</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.7696414950419527</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9908466819221968</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.4925067807267072</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.5272012781856399</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.1906941266209001</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.2071338128732606</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.2779411877205725</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.9805956844469151</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.8230358504958047</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.9916094584286804</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.5232941484744622</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.5724781614459714</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.2227307398932113</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.2579009100553506</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.3277312453325598</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.9786842730391808</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.7906178489702517</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.9919908466819222</v>
+        <v>1</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.4955946277833521</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.5313593784126814</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.1937452326468345</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.2115354141797993</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.2823427890271111</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.9804591550606484</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.8199847444698704</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.9916094584286804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>coral</t>
+          <t>gpor</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5636456466171095</v>
+        <v>0.4875550102718926</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6126713152949426</v>
+        <v>0.5226220828539146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2520976353928299</v>
+        <v>0.3363446967840387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2817210223161782</v>
+        <v>0.3520525397362759</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3753661405852349</v>
+        <v>0.2731338414865641</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9772993875157039</v>
+        <v>0.9890849959714647</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.5461186812727502</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.59994430936737</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.2448512585812357</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2865768573386994</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.3599331743422906</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9765928632477586</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7696414950419527</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9908466819221968</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4925067807267072</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.5272012781856399</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1906941266209001</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2071338128732606</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2779411877205725</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9805956844469151</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8230358504958047</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.5232941484744622</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.5724781614459714</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.2227307398932113</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2579009100553506</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.3277312453325598</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9786842730391808</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.7906178489702517</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4955946277833521</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.5313593784126814</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1937452326468345</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2115354141797993</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2823427890271111</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9804591550606484</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8199847444698704</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9916094584286804</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>coral</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4287530035609636</v>
+        <v>0.5636456466171095</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4868131625951119</v>
+        <v>0.6126713152949426</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1700991609458429</v>
+        <v>0.2520976353928299</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2180670612254195</v>
+        <v>0.2817210223161782</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2369870552758549</v>
+        <v>0.3753661405852349</v>
       </c>
       <c r="G22" t="n">
-        <v>0.985922779468919</v>
+        <v>0.9772993875157039</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="K22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="S22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.511575984509805</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="BH22" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9862700228832952</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>spacecutter</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6616900442968645</v>
+        <v>0.4287530035609636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7059514755944331</v>
+        <v>0.4868131625951119</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3485888634630053</v>
+        <v>0.1700991609458429</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3863615049764412</v>
+        <v>0.2180670612254195</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4983674858939574</v>
+        <v>0.2369870552758549</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9632377790893306</v>
+        <v>0.985922779468919</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="N23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="V23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="X23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="BH23" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9946605644546148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>nn_rank</t>
+          <t>spacecutter</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4349351372422477</v>
+        <v>0.6616900442968645</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4806843085927738</v>
+        <v>0.7059514755944331</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1571319603356217</v>
+        <v>0.3485888634630053</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1789383247946659</v>
+        <v>0.3863615049764412</v>
       </c>
       <c r="F24" t="n">
-        <v>0.231057404527313</v>
+        <v>0.4983674858939574</v>
       </c>
       <c r="G24" t="n">
-        <v>0.985444008257885</v>
+        <v>0.9632377790893306</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="S24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="X24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="BH24" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9801678108314263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>condor</t>
+          <t>nn_rank</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4978979459760505</v>
+        <v>0.4349351372422477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5517009882176608</v>
+        <v>0.4806843085927738</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2082379862700229</v>
+        <v>0.1571319603356217</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2465789277406037</v>
+        <v>0.1789383247946659</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3043739804003435</v>
+        <v>0.231057404527313</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9838607571687111</v>
+        <v>0.985444008257885</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="BG25" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="BH25" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9935163996948894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>or_cnn</t>
+          <t>condor</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4878383646484595</v>
+        <v>0.4978979459760505</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5425236923704343</v>
+        <v>0.5517009882176608</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2028985507246377</v>
+        <v>0.2082379862700229</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2424969247264742</v>
+        <v>0.2465789277406037</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2943319567832496</v>
+        <v>0.3043739804003435</v>
       </c>
       <c r="G26" t="n">
-        <v>0.983216069080196</v>
+        <v>0.9838607571687111</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.5085088354177737</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.5749321085284655</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.2204424103737605</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.2747059558974528</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.3305469294169873</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0.9826586251062235</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0.7940503432494279</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>or_cnn</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4878383646484595</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5425236923704343</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2424969247264742</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2943319567832496</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.983216069080196</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>0.9897025171624714</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y27" t="n">
         <v>0.9897025171624714</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG27" t="n">
         <v>0.9897025171624714</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO27" t="n">
         <v>0.9897025171624714</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW27" t="n">
         <v>0.9897025171624714</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AX27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BC27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="BE26" t="n">
+      <c r="BE27" t="n">
         <v>0.9897025171624714</v>
       </c>
-      <c r="BF26" t="n">
+      <c r="BF27" t="n">
         <v>0.5001906577762333</v>
       </c>
-      <c r="BG26" t="n">
+      <c r="BG27" t="n">
         <v>0.5671088380475164</v>
       </c>
-      <c r="BH26" t="n">
+      <c r="BH27" t="n">
         <v>0.2151029748283753</v>
       </c>
-      <c r="BI26" t="n">
+      <c r="BI27" t="n">
         <v>0.2697774021348289</v>
       </c>
-      <c r="BJ26" t="n">
+      <c r="BJ27" t="n">
         <v>0.3216124341916042</v>
       </c>
-      <c r="BK26" t="n">
+      <c r="BK27" t="n">
         <v>0.9828732150160284</v>
       </c>
-      <c r="BL26" t="n">
+      <c r="BL27" t="n">
         <v>0.7974828375286042</v>
       </c>
-      <c r="BM26" t="n">
+      <c r="BM27" t="n">
         <v>0.9897025171624714</v>
       </c>
     </row>

--- a/training/results/results_train.xlsx
+++ b/training/results/results_train.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM27"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,1001 +894,1001 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>linear_regression</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7811936902327506</v>
+        <v>0.6261614537715098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8689698945656757</v>
+        <v>0.7305555531966975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4689804220696671</v>
+        <v>0.4159106390836186</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5133830230090559</v>
+        <v>0.4748821362587158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7551086776614817</v>
+        <v>0.5337114163065327</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9669191746033301</v>
+        <v>0.9832240281924</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>0.8188287667144363</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9104536897739206</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4780874897824713</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8289259212229464</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9571221197197413</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6540808543096872</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8188287667144363</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9104536897739206</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4780874897824713</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8289259212229464</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9571221197197413</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6540808543096872</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8169635507004889</v>
+        <v>0.6264571115294425</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9014609378779836</v>
+        <v>0.6806768768393032</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4225781845919146</v>
+        <v>0.3062547673531655</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4760491539295028</v>
+        <v>0.3503616991451248</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8126318225198539</v>
+        <v>0.4633210106637079</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9562502908137152</v>
+        <v>0.9711485243805974</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6502669717772692</v>
+        <v>0.7196796338672768</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9496567505720824</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8028363145614692</v>
+        <v>0.591749523598273</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8812307592417018</v>
+        <v>0.6443731004622157</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.4080854309687262</v>
+        <v>0.2701935804429335</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.4480673133677124</v>
+        <v>0.3099857561373867</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7765676510337063</v>
+        <v>0.4152166925992887</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9575874216639687</v>
+        <v>0.9743015572921386</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6632341723874905</v>
+        <v>0.7532418001525553</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9500381388253242</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.8188287667144363</v>
+        <v>0.6184920516882376</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9104536897739206</v>
+        <v>0.685973296805473</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3016781083142639</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4780874897824713</v>
+        <v>0.3589773775276653</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8289259212229464</v>
+        <v>0.4705593639301696</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9571221197197413</v>
+        <v>0.9712082177221266</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.6540808543096872</v>
+        <v>0.7231121281464531</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.8120469751529603</v>
+        <v>0.6132281938205507</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.8936656410260682</v>
+        <v>0.678167654644497</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.4168573607932876</v>
+        <v>0.2944317315026697</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.4660886690073096</v>
+        <v>0.3495787814162409</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.7986382779505333</v>
+        <v>0.4599113678060177</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9568812035157235</v>
+        <v>0.9717497434716913</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.6548436308161708</v>
+        <v>0.7307398932112891</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9508009153318078</v>
+        <v>0.9820747520976354</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.8028363145614692</v>
+        <v>0.5930371419158755</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.8812307592417018</v>
+        <v>0.6507582003432583</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.4080854309687262</v>
+        <v>0.2740074629753516</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.4480673133677124</v>
+        <v>0.3179666620747397</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7765676510337063</v>
+        <v>0.4234862353139963</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.9575874216639687</v>
+        <v>0.9738901324151374</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.6632341723874905</v>
+        <v>0.7494279176201373</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9500381388253242</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>linear_regression</t>
+          <t>linear_regression_ridge</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6261614537715098</v>
+        <v>0.6263861878371352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7305555531966975</v>
+        <v>0.7316116193568295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4159106390836186</v>
+        <v>0.4147813260959421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4748821362587158</v>
+        <v>0.4740897949422319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5337114163065327</v>
+        <v>0.5352555615779223</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9832240281924</v>
+        <v>0.9834181080822948</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="K5" t="n">
-        <v>0.685973296805473</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Q5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="S5" t="n">
-        <v>0.685973296805473</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="Y5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6264571115294425</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6806768768393032</v>
+        <v>0.6712184592067262</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3062547673531655</v>
+        <v>0.3089244851258581</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3503616991451248</v>
+        <v>0.3510103127695428</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4633210106637079</v>
+        <v>0.4505342199798516</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9711485243805974</v>
+        <v>0.9707967928451254</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7196796338672768</v>
+        <v>0.7135774218154081</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9843630816170862</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.591749523598273</v>
+        <v>0.5907774881041755</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6443731004622157</v>
+        <v>0.6455208746184804</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2701935804429335</v>
+        <v>0.2690330156166856</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.3099857561373867</v>
+        <v>0.3120740861752263</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4152166925992887</v>
+        <v>0.4166971995682079</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9743015572921386</v>
+        <v>0.9742672718857218</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7532418001525553</v>
+        <v>0.7547673531655225</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6184920516882376</v>
+        <v>0.6178751018571973</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.685973296805473</v>
+        <v>0.6861918450696267</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3016781083142639</v>
+        <v>0.3009153318077803</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.3589773775276653</v>
+        <v>0.3592772618375543</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4705593639301696</v>
+        <v>0.4708592482400586</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.9712082177221266</v>
+        <v>0.9712679110636557</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7231121281464531</v>
+        <v>0.7238749046529367</v>
       </c>
       <c r="AW5" t="n">
         <v>0.9824561403508771</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.6132281938205507</v>
+        <v>0.6116713794434115</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.678167654644497</v>
+        <v>0.6735334670242851</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.2944317315026697</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3495787814162409</v>
+        <v>0.3496448733061608</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.4599113678060177</v>
+        <v>0.4536473312017537</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.9717497434716913</v>
+        <v>0.9717056622348698</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.7307398932112891</v>
+        <v>0.7261632341723875</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.5930371419158755</v>
+        <v>0.5888375930010146</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6507582003432583</v>
+        <v>0.6462638316609773</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2740074629753516</v>
+        <v>0.2713213451361364</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3179666620747397</v>
+        <v>0.3162704543376215</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.4234862353139963</v>
+        <v>0.417656940113128</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.9738901324151374</v>
+        <v>0.9741720686589753</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.7494279176201373</v>
+        <v>0.7513348588863463</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9843630816170862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_ridge</t>
+          <t>linear_regression_lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6263861878371352</v>
+        <v>0.6312458059434917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7316116193568295</v>
+        <v>0.7410439357100114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4147813260959421</v>
+        <v>0.4109692367380578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4740897949422319</v>
+        <v>0.4710655860191665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5352555615779223</v>
+        <v>0.5491461146525835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9834181080822948</v>
+        <v>0.9838099412984863</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
+        <v>0.6135390826586817</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6847609138295824</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2909992372234935</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.349099189925642</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4688975091087247</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9719135175112713</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.7337909992372235</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.982837528604119</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6135390826586817</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6847609138295824</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2909992372234935</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.349099189925642</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.4688975091087247</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9719135175112713</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.7337909992372235</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.982837528604119</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.6178751018571973</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.6861918450696267</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3009153318077803</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.3592772618375543</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.4708592482400586</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9712679110636557</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.7238749046529367</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.6178751018571973</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.6861918450696267</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.3009153318077803</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.3592772618375543</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.4708592482400586</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.9712679110636557</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.7238749046529367</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.6200317405324783</v>
-      </c>
       <c r="AA6" t="n">
-        <v>0.6712184592067262</v>
+        <v>0.681355270509558</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3089244851258581</v>
+        <v>0.2955758962623951</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3510103127695428</v>
+        <v>0.3437590023197471</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4505342199798516</v>
+        <v>0.464245004651153</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9707967928451254</v>
+        <v>0.9719863739999069</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7135774218154081</v>
+        <v>0.7276887871853547</v>
       </c>
       <c r="AG6" t="n">
         <v>0.9843630816170862</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5907774881041755</v>
+        <v>0.5846139335027085</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6455208746184804</v>
+        <v>0.6450512289276243</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2690330156166856</v>
+        <v>0.2587323910926906</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3120740861752263</v>
+        <v>0.3014148396601551</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4166971995682079</v>
+        <v>0.4160910879410384</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9742672718857218</v>
+        <v>0.9751559373752562</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7547673531655225</v>
+        <v>0.7646834477498093</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9839816933638444</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6135390826586817</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6861918450696267</v>
+        <v>0.6847609138295824</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.3009153318077803</v>
+        <v>0.2909992372234935</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3592772618375543</v>
+        <v>0.349099189925642</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4708592482400586</v>
+        <v>0.4688975091087247</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9712679110636557</v>
+        <v>0.9719135175112713</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7238749046529367</v>
+        <v>0.7337909992372235</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.6116713794434115</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.6735334670242851</v>
+        <v>0.6774828800787883</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.2971014492753623</v>
+        <v>0.2833714721586575</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3496448733061608</v>
+        <v>0.3381537603188229</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4536473312017537</v>
+        <v>0.4589830527998498</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.9717056622348698</v>
+        <v>0.9727268775545689</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.7261632341723875</v>
+        <v>0.7410373760488177</v>
       </c>
       <c r="BE6" t="n">
         <v>0.9836003051106026</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.5888375930010146</v>
+        <v>0.5891628694944161</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.6462638316609773</v>
+        <v>0.6524634856781336</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2713213451361364</v>
+        <v>0.2640718266380758</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.3162704543376215</v>
+        <v>0.3103748620744521</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.417656940113128</v>
+        <v>0.4257086001432601</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.9741720686589753</v>
+        <v>0.9747365533860513</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.7513348588863463</v>
+        <v>0.7593440122044242</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9839816933638444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>linear_regression_lasso</t>
+          <t>lad_regression</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6312458059434917</v>
+        <v>0.652789895694072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7410439357100114</v>
+        <v>0.7640917584836886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4109692367380578</v>
+        <v>0.4017644597747589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4710655860191665</v>
+        <v>0.4571962504296854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5491461146525835</v>
+        <v>0.5838362153826955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9838099412984863</v>
+        <v>0.9831107639033445</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M7" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="U7" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6178751018571973</v>
+        <v>0.6373213394375848</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.681355270509558</v>
+        <v>0.6938212673397409</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2955758962623951</v>
+        <v>0.2871853546910755</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3437590023197471</v>
+        <v>0.3228659493351466</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.464245004651153</v>
+        <v>0.4813879510129243</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9719863739999069</v>
+        <v>0.9716165814021261</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7276887871853547</v>
+        <v>0.7429443173150267</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9843630816170862</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5846139335027085</v>
+        <v>0.6014235086779665</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6450512289276243</v>
+        <v>0.6586035232828878</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2587323910926906</v>
+        <v>0.2520848238815967</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3014148396601551</v>
+        <v>0.290149713165347</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4160910879410384</v>
+        <v>0.4337586008806333</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9751559373752562</v>
+        <v>0.9749052253408337</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7646834477498093</v>
+        <v>0.7772692601067888</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6135390826586817</v>
+        <v>0.6343221635494847</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6847609138295824</v>
+        <v>0.7045739745215253</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2909992372234935</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.349099189925642</v>
+        <v>0.3397363549113901</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4688975091087247</v>
+        <v>0.496424485573059</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9719135175112713</v>
+        <v>0.9713918895422163</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7337909992372235</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.6258480135618621</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.6774828800787883</v>
+        <v>0.6992924440796943</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2833714721586575</v>
+        <v>0.2757437070938215</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3381537603188229</v>
+        <v>0.3341580608237784</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.4589830527998498</v>
+        <v>0.4890099223469523</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.9727268775545689</v>
+        <v>0.9723990233557086</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.7410373760488177</v>
+        <v>0.7559115179252479</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5891628694944161</v>
+        <v>0.6023739715079341</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.6524634856781336</v>
+        <v>0.6641249832343022</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2640718266380758</v>
+        <v>0.2562800946672565</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.3103748620744521</v>
+        <v>0.2984600696911182</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.4257086001432601</v>
+        <v>0.4410619933559622</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.9747365533860513</v>
+        <v>0.9747016557402342</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.7593440122044242</v>
+        <v>0.7715484363081617</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.9839816933638444</v>
+        <v>0.9832189168573608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>lad_regression</t>
+          <t>huber_regression</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.652789895694072</v>
+        <v>0.6442864852215702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7640917584836886</v>
+        <v>0.7536669697897586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4017644597747589</v>
+        <v>0.4017667602710364</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4571962504296854</v>
+        <v>0.4571356079102252</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5838362153826955</v>
+        <v>0.5680139013520769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9831107639033445</v>
+        <v>0.9834034143366875</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6307043270274888</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.7011559115060457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2848970251716247</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.3390084855364167</v>
       </c>
       <c r="N8" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4916196122398738</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.9714910723250648</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7452326468344775</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="V8" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="Y8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6373213394375848</v>
+        <v>0.6450539390522346</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6938212673397409</v>
+        <v>0.7177294662949387</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2871853546910755</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3228659493351466</v>
+        <v>0.3565021476283733</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4813879510129243</v>
+        <v>0.5151355867880176</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9716165814021261</v>
+        <v>0.9708889348748705</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7429443173150267</v>
+        <v>0.7356979405034325</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9786422578184591</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6014235086779665</v>
+        <v>0.5991753671276419</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6586035232828878</v>
+        <v>0.6544535298966495</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2520848238815967</v>
+        <v>0.2501264650034414</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.290149713165347</v>
+        <v>0.2851156614529187</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4337586008806333</v>
+        <v>0.4283094227941847</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9749052253408337</v>
+        <v>0.9751645087268604</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7772692601067888</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9813119755911518</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6343221635494847</v>
+        <v>0.6243226688284831</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.7045739745215253</v>
+        <v>0.6954793834898885</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.3397363549113901</v>
+        <v>0.3366628919500854</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.496424485573059</v>
+        <v>0.4836915728594753</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.9713918895422163</v>
+        <v>0.971888415695859</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.7486651411136537</v>
       </c>
       <c r="AW8" t="n">
         <v>0.9805491990846682</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.6258480135618621</v>
+        <v>0.6197241087891391</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.6992924440796943</v>
+        <v>0.681424241257259</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2757437070938215</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3341580608237784</v>
+        <v>0.3111049978014757</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4890099223469523</v>
+        <v>0.4643389965730311</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.9723990233557086</v>
+        <v>0.9733091172242535</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.7559115179252479</v>
+        <v>0.761632341723875</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.6023739715079341</v>
+        <v>0.6017160680906559</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.6641249832343022</v>
+        <v>0.6641558106393134</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2562800946672565</v>
+        <v>0.2547031240423431</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.2984600696911182</v>
+        <v>0.2969719067882943</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.4410619933559622</v>
+        <v>0.4411029408059635</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.9747016557402342</v>
+        <v>0.974648084792708</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.7715484363081617</v>
+        <v>0.7738367658276125</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9820747520976354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>huber_regression</t>
+          <t>linear_svm</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6442864852215702</v>
+        <v>0.6477113594984002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7536669697897586</v>
+        <v>0.7577548363339487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4017667602710364</v>
+        <v>0.4009263830657261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4571356079102252</v>
+        <v>0.4561800796510678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5680139013520769</v>
+        <v>0.5741923919874893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9834034143366875</v>
+        <v>0.9832711706262229</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1896,3678 +1896,3483 @@
         <v>0.6307043270274888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7011559115060457</v>
+        <v>0.699761681908686</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2848970251716247</v>
+        <v>0.2856598016781083</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3390084855364167</v>
+        <v>0.3392291978076943</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4916196122398738</v>
+        <v>0.4896664114676731</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9714910723250648</v>
+        <v>0.9714130118015267</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7452326468344775</v>
+        <v>0.7444698703279939</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.9805491990846682</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6273696496847275</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.6982927435154092</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2837528604118993</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3392378764796223</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.4876127556462769</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9716612748783481</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.7456140350877193</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.9809305873379099</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.6243226688284831</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.6954793834898885</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2807017543859649</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3366628919500854</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.4836915728594753</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.971888415695859</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
+        <v>0.6331185150958167</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.7072269509378036</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.2841342486651411</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3436047581048595</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5001699601327825</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9717356619654844</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0.7486651411136537</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0.9805491990846682</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.6450539390522346</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.7177294662949387</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.2971014492753623</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.3565021476283733</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.5151355867880176</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.9708889348748705</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.7356979405034325</v>
-      </c>
       <c r="AG9" t="n">
-        <v>0.9786422578184591</v>
+        <v>0.9774980930587338</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5991753671276419</v>
+        <v>0.5995185717028848</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6544535298966495</v>
+        <v>0.6547529479697474</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2501264650034414</v>
+        <v>0.2528520087727555</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.2851156614529187</v>
+        <v>0.2883099523900521</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4283094227941847</v>
+        <v>0.4287014228750747</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9751645087268604</v>
+        <v>0.9749523677746568</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7757437070938215</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.9813119755911518</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6243226688284831</v>
+        <v>0.6273696496847275</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6954793834898885</v>
+        <v>0.6982927435154092</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.2837528604118993</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.3366628919500854</v>
+        <v>0.3392378764796223</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4836915728594753</v>
+        <v>0.4876127556462769</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.971888415695859</v>
+        <v>0.9716612748783481</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.7486651411136537</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9809305873379099</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.6197241087891391</v>
+        <v>0.6200317405324783</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.681424241257259</v>
+        <v>0.6875349248747908</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.2745995423340961</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3111049978014757</v>
+        <v>0.3256642579412694</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.4643389965730311</v>
+        <v>0.4727042729225843</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.9733091172242535</v>
+        <v>0.9725055530113608</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.761632341723875</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.6017160680906559</v>
+        <v>0.6004720497878253</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.6641558106393134</v>
+        <v>0.6596572835622101</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.2547031240423431</v>
+        <v>0.257810056064899</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.2969719067882943</v>
+        <v>0.2973442529900781</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.4411029408059635</v>
+        <v>0.435147731756674</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.974648084792708</v>
+        <v>0.9746762478051217</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.7738367658276125</v>
+        <v>0.7688787185354691</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.9820747520976354</v>
+        <v>0.9836003051106026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>linear_svm</t>
+          <t>kernel_svm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6477113594984002</v>
+        <v>0.3346050121553766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7577548363339487</v>
+        <v>0.3426901277116828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4009263830657261</v>
+        <v>0.2208697775877884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4561800796510678</v>
+        <v>0.2196799150125713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5741923919874893</v>
+        <v>0.1174365236310494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9832711706262229</v>
+        <v>0.995572896896436</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.6307043270274888</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="K10" t="n">
-        <v>0.699761681908686</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2856598016781083</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3392291978076943</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4896664114676731</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9714130118015267</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7444698703279939</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6273696496847275</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6982927435154092</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2837528604118993</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3392378764796223</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4876127556462769</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9716612748783481</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6331185150958167</v>
+        <v>0.3886254601589464</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7072269509378036</v>
+        <v>0.4238602870934932</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2841342486651411</v>
+        <v>0.1388253241800153</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3436047581048595</v>
+        <v>0.1644176996489239</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.5001699601327825</v>
+        <v>0.1796575429749785</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9717356619654844</v>
+        <v>0.9872874610921861</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7486651411136537</v>
+        <v>0.8665141113653699</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9774980930587338</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.5995185717028848</v>
+        <v>0.3238766817579031</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6547529479697474</v>
+        <v>0.3399382958011806</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2528520087727555</v>
+        <v>0.0943407998544715</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.2883099523900521</v>
+        <v>0.1023807000736923</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.4287014228750747</v>
+        <v>0.115558044952211</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9749523677746568</v>
+        <v>0.9904190656247168</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7757437070938215</v>
+        <v>0.910373760488177</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.996186117467582</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6273696496847275</v>
+        <v>0.3725927054841724</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6982927435154092</v>
+        <v>0.4097274886221908</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2837528604118993</v>
+        <v>0.1266209000762777</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.3392378764796223</v>
+        <v>0.1529089273018674</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4876127556462769</v>
+        <v>0.1678766149326475</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.9716612748783481</v>
+        <v>0.988314186566488</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.8787185354691075</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.9954233409610984</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.6200317405324783</v>
+        <v>0.3579754923025386</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.6875349248747908</v>
+        <v>0.3999382306953557</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.2745995423340961</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.3256642579412694</v>
+        <v>0.1450811572612941</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.4727042729225843</v>
+        <v>0.1599505883717316</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.9725055530113608</v>
+        <v>0.9891143834626791</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.7543859649122807</v>
+        <v>0.8882532418001525</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.6004720497878253</v>
+        <v>0.3256382498206184</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.6596572835622101</v>
+        <v>0.3430880490365571</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.257810056064899</v>
+        <v>0.09624774112068049</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.2973442529900781</v>
+        <v>0.1050496628568776</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.435147731756674</v>
+        <v>0.117709409391711</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.9746762478051217</v>
+        <v>0.9903425356996794</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.7688787185354691</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9965675057208238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>kernel_svm</t>
+          <t>knn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3346050121553766</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3426901277116828</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2208697775877884</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2196799150125713</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1174365236310494</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.995572896896436</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O11" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W11" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3886254601589464</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4238602870934932</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1388253241800153</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1644176996489239</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1796575429749785</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9872874610921861</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.8665141113653699</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3238766817579031</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.3399382958011806</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0943407998544715</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.1023807000736923</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.115558044952211</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9904190656247168</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.910373760488177</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.996186117467582</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.3725927054841724</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.4097274886221908</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.1266209000762777</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.1529089273018674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1678766149326475</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.988314186566488</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.8787185354691075</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.9954233409610984</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.3579754923025386</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.3999382306953557</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.1167048054919908</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1450811572612941</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.1599505883717316</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.9891143834626791</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.8882532418001525</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.9958047292143402</v>
+        <v>1</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.3256382498206184</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.3430880490365571</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.09624774112068049</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.1050496628568776</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.117709409391711</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.9903425356996794</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.9080854309687262</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.9965675057208238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>knn</t>
+          <t>random_forest</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1491435452892591</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.1656885508612023</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.09080015255530124</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.09976022088527692</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.02745269588648522</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9997520430428788</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1842377663198298</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2522374353345713</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03318077803203661</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06198303469474448</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06362372378416203</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9980561399040498</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9672006102212052</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1952916417161268</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2586233917322064</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.03737604881769641</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06524536966165273</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.06688605875107027</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.997516450872686</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9630053394355453</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1713677201214354</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2393417951594169</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02860411899313501</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05564380582071474</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05728449491013229</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984369528110359</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9717772692601068</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.1702513061517497</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.2411046514887463</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.02822273073989321</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05649076388009226</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05813145296950981</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9984528710354438</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9721586575133486</v>
       </c>
       <c r="BE12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.08949387307563464</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.1097003827047376</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01039348487614833</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.01203417396556589</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9994459233427292</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="BM12" t="n">
-        <v>1</v>
+        <v>0.9996186117467581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>random_forest</t>
+          <t>lightgbm</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1491435452892591</v>
+        <v>0.001055214695283901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1656885508612023</v>
+        <v>0.001027226248978606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09080015255530124</v>
+        <v>0.0004599446475724965</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09976022088527692</v>
+        <v>0.0004630844662941936</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02745269588648522</v>
+        <v>1.055193766590657e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9997520430428788</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.1842377663198298</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2522374353345713</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03318077803203661</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06198303469474448</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06362372378416203</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9980561399040498</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9672006102212052</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1713677201214354</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2393417951594169</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02860411899313501</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05564380582071474</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05728449491013229</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9984369528110359</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9717772692601068</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1952916417161268</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2586233917322064</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03737604881769641</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.06524536966165273</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06688605875107027</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.997516450872686</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.9630053394355453</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1097003827047376</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.01039348487614833</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01203417396556589</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9994459233427292</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1713677201214354</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2393417951594169</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.02860411899313501</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.05564380582071474</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.05728449491013229</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.9984369528110359</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.9717772692601068</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1702513061517497</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.2411046514887463</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.02822273073989321</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.05649076388009226</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.05813145296950981</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.9984528710354438</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.9721586575133486</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.08949387307563464</v>
+        <v>0.09160007022157375</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1097003827047376</v>
+        <v>0.136950269904103</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.008402332429430979</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.01039348487614833</v>
+        <v>0.01877349251317216</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01203417396556589</v>
+        <v>0.01875537642680666</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.9994459233427292</v>
+        <v>0.9996430644296256</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.9996186117467581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>lightgbm</t>
+          <t>linear_ordinal_model_probit</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001055214695283901</v>
+        <v>0.6157109092117414</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001027226248978606</v>
+        <v>0.6696991741327074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004599446475724965</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004630844662941936</v>
+        <v>0.3169364398699616</v>
       </c>
       <c r="F14" t="n">
-        <v>1.055193766590657e-06</v>
+        <v>0.4484969838340304</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9721094341193671</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.09160007022157375</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.136950269904103</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.008402332429430979</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01877349251317216</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.01875537642680666</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.9996430644296256</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BE14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.09160007022157375</v>
+        <v>0.6270656178521479</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.136950269904103</v>
+        <v>0.6929884978001108</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.008402332429430979</v>
+        <v>0.2940503432494279</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.01877349251317216</v>
+        <v>0.3486725141191854</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01875537642680666</v>
+        <v>0.4802330580832543</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.9996430644296256</v>
+        <v>0.9717068867136703</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.7334096109839817</v>
       </c>
       <c r="BM14" t="n">
-        <v>1</v>
+        <v>0.9816933638443935</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_probit</t>
+          <t>linear_ordinal_model_logit</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6157109092117414</v>
+        <v>0.5968388631178783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6696991741327074</v>
+        <v>0.6487886640938578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2585812356979405</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3169364398699616</v>
+        <v>0.290994593767527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4484969838340304</v>
+        <v>0.4209267306566926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9721094341193671</v>
+        <v>0.9740661512427236</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.6270656178521479</v>
+        <v>0.6085458026293402</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.6929884978001108</v>
+        <v>0.6728022034044749</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2940503432494279</v>
+        <v>0.2726926010678871</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.3486725141191854</v>
+        <v>0.3227306680167509</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.4802330580832543</v>
+        <v>0.4526628049059165</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9717068867136703</v>
+        <v>0.9734701361865322</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.7334096109839817</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9824561403508771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>linear_ordinal_model_logit</t>
+          <t>ordered_random_forest</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5968388631178783</v>
+        <v>0.4592468878966035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6487886640938578</v>
+        <v>0.4758022124461155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2585812356979405</v>
+        <v>0.1674294431731503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.290994593767527</v>
+        <v>0.1817100082615581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4209267306566926</v>
+        <v>0.2263877453686184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9740661512427236</v>
+        <v>0.982874439494829</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.6085458026293402</v>
+        <v>0.4739595775584879</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.6728022034044749</v>
+        <v>0.5071874745343471</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.2726926010678871</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.3227306680167509</v>
+        <v>0.2125613972174686</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.4526628049059165</v>
+        <v>0.2572391343245289</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.9734701361865322</v>
+        <v>0.9822092413864039</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8344774980930587</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9881769641495042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ordered_random_forest</t>
+          <t>logisticAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4592468878966035</v>
+        <v>0.584245228180266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4758022124461155</v>
+        <v>0.6296418016160013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1674294431731503</v>
+        <v>0.2665903890160183</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1817100082615581</v>
+        <v>0.2973805763329034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2263877453686184</v>
+        <v>0.3964487983422439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.982874439494829</v>
+        <v>0.97344503437112</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.4739595775584879</v>
+        <v>0.5955594642979609</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.5071874745343471</v>
+        <v>0.6531035013702271</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.2799389778794813</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.2125613972174686</v>
+        <v>0.3274759614927097</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.2572391343245289</v>
+        <v>0.4265441835020503</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.9822092413864039</v>
+        <v>0.9728609579832345</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.8344774980930587</v>
+        <v>0.7437070938215103</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.982837528604119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>logisticAT</t>
+          <t>logisticIT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.584245228180266</v>
+        <v>0.5984342652238843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6296418016160013</v>
+        <v>0.6465551597900934</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2665903890160183</v>
+        <v>0.2551487414187643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2973805763329034</v>
+        <v>0.2856473264998776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964487983422439</v>
+        <v>0.4180335746511932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.97344503437112</v>
+        <v>0.9736287061912097</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.5955594642979609</v>
+        <v>0.6097979558105744</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.6531035013702271</v>
+        <v>0.6700367932850466</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.2799389778794813</v>
+        <v>0.2688787185354691</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.3274759614927097</v>
+        <v>0.3165630562043927</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.4265441835020503</v>
+        <v>0.4489493043557083</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.9728609579832345</v>
+        <v>0.9729772834692912</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.7437070938215103</v>
+        <v>0.7612509534706331</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.982837528604119</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>logisticIT</t>
+          <t>simple_or</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5984342652238843</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6465551597900934</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2551487414187643</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2856473264998776</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4180335746511932</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9736287061912097</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="W19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.6097979558105744</v>
+        <v>0.1394661282008352</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.6700367932850466</v>
+        <v>0.2085144140570748</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.2688787185354691</v>
+        <v>0.01945080091533181</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.3165630562043927</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.4489493043557083</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.9729772834692912</v>
+        <v>0.9991725584504956</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.7612509534706331</v>
+        <v>0.9805491990846682</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>simple_or</t>
+          <t>gpor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.4875550102718926</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.5226220828539146</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.3363446967840387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3520525397362759</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2731338414865641</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.9890849959714647</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5461186812727502</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.59994430936737</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2448512585812357</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2865768573386994</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3599331743422906</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9765928632477586</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7696414950419527</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0.9908466819221968</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.4925067807267072</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5272012781856399</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1906941266209001</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2071338128732606</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2779411877205725</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9805956844469151</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8230358504958047</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5298129428260175</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5812565453268769</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2295957284515637</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2668414047137897</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3378591714853357</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9788122310738434</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7837528604118993</v>
       </c>
       <c r="AW20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.5232941484744622</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5724781614459714</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.2227307398932113</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2579009100553506</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.3277312453325598</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9786842730391808</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.7906178489702517</v>
       </c>
       <c r="BE20" t="n">
-        <v>1</v>
+        <v>0.9919908466819222</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.1394661282008352</v>
+        <v>0.4955946277833521</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.2085144140570748</v>
+        <v>0.5313593784126814</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.01945080091533181</v>
+        <v>0.1937452326468345</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2115354141797993</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2823427890271111</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.9991725584504956</v>
+        <v>0.9804591550606484</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.9805491990846682</v>
+        <v>0.8199847444698704</v>
       </c>
       <c r="BM20" t="n">
-        <v>1</v>
+        <v>0.9916094584286804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>gpor</t>
+          <t>coral</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4875550102718926</v>
+        <v>0.5636456466171095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5226220828539146</v>
+        <v>0.6126713152949426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3363446967840387</v>
+        <v>0.2520976353928299</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3520525397362759</v>
+        <v>0.2817210223161782</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2731338414865641</v>
+        <v>0.3753661405852349</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9890849959714647</v>
+        <v>0.9772993875157039</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9919908466819222</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9919908466819222</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5461186812727502</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.59994430936737</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.2448512585812357</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2865768573386994</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.3599331743422906</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.9765928632477586</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.7696414950419527</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.9908466819221968</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.4925067807267072</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.5272012781856399</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.1906941266209001</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.2071338128732606</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.2779411877205725</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.9805956844469151</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.8230358504958047</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.5298129428260175</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.5812565453268769</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.2295957284515637</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.2668414047137897</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.3378591714853357</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.9788122310738434</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.7837528604118993</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.9919908466819222</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.5232941484744622</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.5724781614459714</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2227307398932113</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.2579009100553506</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.3277312453325598</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.9786842730391808</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.7906178489702517</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.9919908466819222</v>
+        <v>0.9862700228832952</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.4955946277833521</v>
+        <v>0.5753651047933673</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.5313593784126814</v>
+        <v>0.6368343873158454</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.1937452326468345</v>
+        <v>0.2654462242562929</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.2115354141797993</v>
+        <v>0.3119129185988915</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.2823427890271111</v>
+        <v>0.4055580368679482</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.9804591550606484</v>
+        <v>0.9764039873927662</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.8199847444698704</v>
+        <v>0.7540045766590389</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9862700228832952</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>coral</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5636456466171095</v>
+        <v>0.4287530035609636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6126713152949426</v>
+        <v>0.4868131625951119</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2520976353928299</v>
+        <v>0.1700991609458429</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2817210223161782</v>
+        <v>0.2180670612254195</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3753661405852349</v>
+        <v>0.2369870552758549</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9772993875157039</v>
+        <v>0.985922779468919</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="X22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.5753651047933673</v>
+        <v>0.4414627927771036</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.6368343873158454</v>
+        <v>0.511575984509805</v>
       </c>
       <c r="BH22" t="n">
-        <v>0.2654462242562929</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.3119129185988915</v>
+        <v>0.2427899938767409</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.4055580368679482</v>
+        <v>0.2617099879271763</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.9764039873927662</v>
+        <v>0.9855055383176151</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.7540045766590389</v>
+        <v>0.8249427917620137</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.9862700228832952</v>
+        <v>0.9946605644546148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>spacecutter</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4287530035609636</v>
+        <v>0.6616900442968645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4868131625951119</v>
+        <v>0.7059514755944331</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1700991609458429</v>
+        <v>0.3485888634630053</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2180670612254195</v>
+        <v>0.3863615049764412</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2369870552758549</v>
+        <v>0.4983674858939574</v>
       </c>
       <c r="G23" t="n">
-        <v>0.985922779468919</v>
+        <v>0.9632377790893306</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="K23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="S23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="X23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.4414627927771036</v>
+        <v>0.6725522049215027</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.511575984509805</v>
+        <v>0.7287114763819745</v>
       </c>
       <c r="BH23" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3630816170861937</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.2427899938767409</v>
+        <v>0.4190144348932808</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.2617099879271763</v>
+        <v>0.531020415810797</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.9855055383176151</v>
+        <v>0.9622312575152386</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.8249427917620137</v>
+        <v>0.6636155606407322</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9801678108314263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>spacecutter</t>
+          <t>nn_rank</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6616900442968645</v>
+        <v>0.4349351372422477</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7059514755944331</v>
+        <v>0.4806843085927738</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3485888634630053</v>
+        <v>0.1571319603356217</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3863615049764412</v>
+        <v>0.1789383247946659</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4983674858939574</v>
+        <v>0.231057404527313</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9632377790893306</v>
+        <v>0.985444008257885</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="N24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="V24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.6725522049215027</v>
+        <v>0.4533963701854375</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.7287114763819745</v>
+        <v>0.5174434427249919</v>
       </c>
       <c r="BH24" t="n">
-        <v>0.3630816170861937</v>
+        <v>0.1735316552250191</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.4190144348932808</v>
+        <v>0.2156286366864448</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.531020415810797</v>
+        <v>0.2677477164190919</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.9622312575152386</v>
+        <v>0.9846888109576158</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.6636155606407322</v>
+        <v>0.8356216628527842</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9935163996948894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>nn_rank</t>
+          <t>condor</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4349351372422477</v>
+        <v>0.4978979459760505</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4806843085927738</v>
+        <v>0.5517009882176608</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1571319603356217</v>
+        <v>0.2082379862700229</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1789383247946659</v>
+        <v>0.2465789277406037</v>
       </c>
       <c r="F25" t="n">
-        <v>0.231057404527313</v>
+        <v>0.3043739804003435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.985444008257885</v>
+        <v>0.9838607571687111</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="X25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.4533963701854375</v>
+        <v>0.5085088354177737</v>
       </c>
       <c r="BG25" t="n">
-        <v>0.5174434427249919</v>
+        <v>0.5749321085284655</v>
       </c>
       <c r="BH25" t="n">
-        <v>0.1735316552250191</v>
+        <v>0.2204424103737605</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.2156286366864448</v>
+        <v>0.2747059558974528</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.2677477164190919</v>
+        <v>0.3305469294169873</v>
       </c>
       <c r="BK25" t="n">
-        <v>0.9846888109576158</v>
+        <v>0.9826586251062235</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.8356216628527842</v>
+        <v>0.7940503432494279</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.9935163996948894</v>
+        <v>0.9877955758962624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>condor</t>
+          <t>or_cnn</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4978979459760505</v>
+        <v>0.4878383646484595</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5517009882176608</v>
+        <v>0.5425236923704343</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2082379862700229</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2465789277406037</v>
+        <v>0.2424969247264742</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3043739804003435</v>
+        <v>0.2943319567832496</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9838607571687111</v>
+        <v>0.983216069080196</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="X26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.5085088354177737</v>
+        <v>0.5001906577762333</v>
       </c>
       <c r="BG26" t="n">
-        <v>0.5749321085284655</v>
+        <v>0.5671088380475164</v>
       </c>
       <c r="BH26" t="n">
-        <v>0.2204424103737605</v>
+        <v>0.2151029748283753</v>
       </c>
       <c r="BI26" t="n">
-        <v>0.2747059558974528</v>
+        <v>0.2697774021348289</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.3305469294169873</v>
+        <v>0.3216124341916042</v>
       </c>
       <c r="BK26" t="n">
-        <v>0.9826586251062235</v>
+        <v>0.9828732150160284</v>
       </c>
       <c r="BL26" t="n">
-        <v>0.7940503432494279</v>
+        <v>0.7974828375286042</v>
       </c>
       <c r="BM26" t="n">
-        <v>0.9877955758962624</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>or_cnn</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.4878383646484595</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5425236923704343</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.2028985507246377</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2424969247264742</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.2943319567832496</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.983216069080196</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.9897025171624714</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.9897025171624714</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0.9897025171624714</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0.9897025171624714</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0.9897025171624714</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0.9897025171624714</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0.5001906577762333</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>0.5671088380475164</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>0.2151029748283753</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>0.2697774021348289</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>0.3216124341916042</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>0.9828732150160284</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>0.7974828375286042</v>
-      </c>
-      <c r="BM27" t="n">
         <v>0.9897025171624714</v>
       </c>
     </row>
